--- a/data/provincias_asignacion_acc.xlsx
+++ b/data/provincias_asignacion_acc.xlsx
@@ -19,1315 +19,1315 @@
     <t>index</t>
   </si>
   <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>01/02/2022</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>01/03/2022</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>01/10/2021</t>
-  </si>
-  <si>
-    <t>01/11/2021</t>
-  </si>
-  <si>
-    <t>01/12/2021</t>
-  </si>
-  <si>
-    <t>02/01/2021</t>
-  </si>
-  <si>
-    <t>02/01/2022</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
-    <t>02/02/2022</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>02/03/2022</t>
-  </si>
-  <si>
-    <t>02/04/2021</t>
-  </si>
-  <si>
-    <t>02/05/2021</t>
-  </si>
-  <si>
-    <t>02/06/2021</t>
-  </si>
-  <si>
-    <t>02/07/2021</t>
-  </si>
-  <si>
-    <t>02/08/2021</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>02/10/2021</t>
-  </si>
-  <si>
-    <t>02/11/2021</t>
-  </si>
-  <si>
-    <t>02/12/2021</t>
-  </si>
-  <si>
-    <t>03/01/2021</t>
-  </si>
-  <si>
-    <t>03/01/2022</t>
-  </si>
-  <si>
-    <t>03/02/2021</t>
-  </si>
-  <si>
-    <t>03/02/2022</t>
-  </si>
-  <si>
-    <t>03/03/2021</t>
-  </si>
-  <si>
-    <t>03/03/2022</t>
-  </si>
-  <si>
-    <t>03/04/2021</t>
-  </si>
-  <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
-    <t>03/06/2021</t>
-  </si>
-  <si>
-    <t>03/07/2021</t>
-  </si>
-  <si>
-    <t>03/08/2021</t>
-  </si>
-  <si>
-    <t>03/09/2021</t>
-  </si>
-  <si>
-    <t>03/10/2021</t>
-  </si>
-  <si>
-    <t>03/11/2021</t>
-  </si>
-  <si>
-    <t>03/12/2021</t>
-  </si>
-  <si>
-    <t>04/01/2021</t>
-  </si>
-  <si>
-    <t>04/01/2022</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>04/02/2022</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
-  </si>
-  <si>
-    <t>04/03/2022</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
-  </si>
-  <si>
-    <t>04/05/2021</t>
-  </si>
-  <si>
-    <t>04/06/2021</t>
-  </si>
-  <si>
-    <t>04/07/2021</t>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>04/09/2021</t>
-  </si>
-  <si>
-    <t>04/10/2021</t>
-  </si>
-  <si>
-    <t>04/11/2021</t>
-  </si>
-  <si>
-    <t>04/12/2021</t>
-  </si>
-  <si>
-    <t>05/01/2021</t>
-  </si>
-  <si>
-    <t>05/01/2022</t>
-  </si>
-  <si>
-    <t>05/02/2021</t>
-  </si>
-  <si>
-    <t>05/02/2022</t>
-  </si>
-  <si>
-    <t>05/03/2021</t>
-  </si>
-  <si>
-    <t>05/03/2022</t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>05/05/2021</t>
-  </si>
-  <si>
-    <t>05/06/2021</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>05/08/2021</t>
-  </si>
-  <si>
-    <t>05/09/2021</t>
-  </si>
-  <si>
-    <t>05/10/2021</t>
-  </si>
-  <si>
-    <t>05/11/2021</t>
-  </si>
-  <si>
-    <t>05/12/2021</t>
-  </si>
-  <si>
-    <t>06/01/2021</t>
-  </si>
-  <si>
-    <t>06/01/2022</t>
-  </si>
-  <si>
-    <t>06/02/2021</t>
-  </si>
-  <si>
-    <t>06/02/2022</t>
-  </si>
-  <si>
-    <t>06/03/2021</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>06/04/2021</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
-    <t>06/06/2021</t>
-  </si>
-  <si>
-    <t>06/07/2021</t>
-  </si>
-  <si>
-    <t>06/08/2021</t>
-  </si>
-  <si>
-    <t>06/09/2021</t>
-  </si>
-  <si>
-    <t>06/10/2021</t>
-  </si>
-  <si>
-    <t>06/11/2021</t>
-  </si>
-  <si>
-    <t>06/12/2021</t>
-  </si>
-  <si>
-    <t>07/01/2021</t>
-  </si>
-  <si>
-    <t>07/01/2022</t>
-  </si>
-  <si>
-    <t>07/02/2021</t>
-  </si>
-  <si>
-    <t>07/02/2022</t>
-  </si>
-  <si>
-    <t>07/03/2021</t>
-  </si>
-  <si>
-    <t>07/03/2022</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>07/05/2021</t>
-  </si>
-  <si>
-    <t>07/06/2021</t>
-  </si>
-  <si>
-    <t>07/07/2021</t>
-  </si>
-  <si>
-    <t>07/08/2021</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>07/10/2021</t>
-  </si>
-  <si>
-    <t>07/11/2021</t>
-  </si>
-  <si>
-    <t>07/12/2021</t>
-  </si>
-  <si>
-    <t>08/01/2021</t>
-  </si>
-  <si>
-    <t>08/01/2022</t>
-  </si>
-  <si>
-    <t>08/02/2021</t>
-  </si>
-  <si>
-    <t>08/02/2022</t>
-  </si>
-  <si>
-    <t>08/03/2021</t>
-  </si>
-  <si>
-    <t>08/03/2022</t>
-  </si>
-  <si>
-    <t>08/04/2021</t>
-  </si>
-  <si>
-    <t>08/05/2021</t>
-  </si>
-  <si>
-    <t>08/06/2021</t>
-  </si>
-  <si>
-    <t>08/07/2021</t>
-  </si>
-  <si>
-    <t>08/08/2021</t>
-  </si>
-  <si>
-    <t>08/09/2021</t>
-  </si>
-  <si>
-    <t>08/10/2021</t>
-  </si>
-  <si>
-    <t>08/11/2021</t>
-  </si>
-  <si>
-    <t>08/12/2021</t>
-  </si>
-  <si>
-    <t>09/01/2021</t>
-  </si>
-  <si>
-    <t>09/01/2022</t>
-  </si>
-  <si>
-    <t>09/02/2021</t>
-  </si>
-  <si>
-    <t>09/02/2022</t>
-  </si>
-  <si>
-    <t>09/03/2021</t>
-  </si>
-  <si>
-    <t>09/03/2022</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
-    <t>09/05/2021</t>
-  </si>
-  <si>
-    <t>09/06/2021</t>
-  </si>
-  <si>
-    <t>09/07/2021</t>
-  </si>
-  <si>
-    <t>09/08/2021</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>09/10/2021</t>
-  </si>
-  <si>
-    <t>09/11/2021</t>
-  </si>
-  <si>
-    <t>09/12/2021</t>
-  </si>
-  <si>
-    <t>10/01/2021</t>
-  </si>
-  <si>
-    <t>10/01/2022</t>
-  </si>
-  <si>
-    <t>10/02/2021</t>
-  </si>
-  <si>
-    <t>10/02/2022</t>
-  </si>
-  <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>10/03/2022</t>
-  </si>
-  <si>
-    <t>10/04/2021</t>
-  </si>
-  <si>
-    <t>10/05/2021</t>
-  </si>
-  <si>
-    <t>10/06/2021</t>
-  </si>
-  <si>
-    <t>10/07/2021</t>
-  </si>
-  <si>
-    <t>10/08/2021</t>
-  </si>
-  <si>
-    <t>10/09/2021</t>
-  </si>
-  <si>
-    <t>10/10/2021</t>
-  </si>
-  <si>
-    <t>10/11/2021</t>
-  </si>
-  <si>
-    <t>10/12/2021</t>
-  </si>
-  <si>
-    <t>11/01/2021</t>
-  </si>
-  <si>
-    <t>11/01/2022</t>
-  </si>
-  <si>
-    <t>11/02/2021</t>
-  </si>
-  <si>
-    <t>11/02/2022</t>
-  </si>
-  <si>
-    <t>11/03/2021</t>
-  </si>
-  <si>
-    <t>11/03/2022</t>
-  </si>
-  <si>
-    <t>11/04/2021</t>
-  </si>
-  <si>
-    <t>11/05/2021</t>
-  </si>
-  <si>
-    <t>11/06/2021</t>
-  </si>
-  <si>
-    <t>11/07/2021</t>
-  </si>
-  <si>
-    <t>11/08/2021</t>
-  </si>
-  <si>
-    <t>11/09/2021</t>
-  </si>
-  <si>
-    <t>11/10/2021</t>
-  </si>
-  <si>
-    <t>11/11/2021</t>
-  </si>
-  <si>
-    <t>11/12/2021</t>
-  </si>
-  <si>
-    <t>12/01/2021</t>
-  </si>
-  <si>
-    <t>12/01/2022</t>
-  </si>
-  <si>
-    <t>12/02/2021</t>
-  </si>
-  <si>
-    <t>12/02/2022</t>
-  </si>
-  <si>
-    <t>12/03/2021</t>
-  </si>
-  <si>
-    <t>12/03/2022</t>
-  </si>
-  <si>
-    <t>12/04/2021</t>
-  </si>
-  <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>12/06/2021</t>
-  </si>
-  <si>
-    <t>12/07/2021</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>12/09/2021</t>
-  </si>
-  <si>
-    <t>12/10/2021</t>
-  </si>
-  <si>
-    <t>12/11/2021</t>
-  </si>
-  <si>
-    <t>12/12/2021</t>
-  </si>
-  <si>
-    <t>13/01/2021</t>
-  </si>
-  <si>
-    <t>13/01/2022</t>
-  </si>
-  <si>
-    <t>13/02/2021</t>
-  </si>
-  <si>
-    <t>13/02/2022</t>
-  </si>
-  <si>
-    <t>13/03/2021</t>
-  </si>
-  <si>
-    <t>13/03/2022</t>
-  </si>
-  <si>
-    <t>13/04/2021</t>
-  </si>
-  <si>
-    <t>13/05/2021</t>
-  </si>
-  <si>
-    <t>13/06/2021</t>
-  </si>
-  <si>
-    <t>13/07/2021</t>
-  </si>
-  <si>
-    <t>13/08/2021</t>
-  </si>
-  <si>
-    <t>13/09/2021</t>
-  </si>
-  <si>
-    <t>13/10/2021</t>
-  </si>
-  <si>
-    <t>13/11/2021</t>
-  </si>
-  <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
-    <t>14/01/2022</t>
-  </si>
-  <si>
-    <t>14/02/2021</t>
-  </si>
-  <si>
-    <t>14/02/2022</t>
-  </si>
-  <si>
-    <t>14/03/2021</t>
-  </si>
-  <si>
-    <t>14/04/2021</t>
-  </si>
-  <si>
-    <t>14/05/2021</t>
-  </si>
-  <si>
-    <t>14/06/2021</t>
-  </si>
-  <si>
-    <t>14/07/2021</t>
-  </si>
-  <si>
-    <t>14/08/2021</t>
-  </si>
-  <si>
-    <t>14/09/2021</t>
-  </si>
-  <si>
-    <t>14/10/2021</t>
-  </si>
-  <si>
-    <t>14/11/2021</t>
-  </si>
-  <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
-    <t>15/01/2021</t>
-  </si>
-  <si>
-    <t>15/01/2022</t>
-  </si>
-  <si>
-    <t>15/02/2021</t>
-  </si>
-  <si>
-    <t>15/02/2022</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>15/05/2021</t>
-  </si>
-  <si>
-    <t>15/06/2021</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>15/08/2021</t>
-  </si>
-  <si>
-    <t>15/09/2021</t>
-  </si>
-  <si>
-    <t>15/10/2021</t>
-  </si>
-  <si>
-    <t>15/11/2021</t>
-  </si>
-  <si>
-    <t>15/12/2021</t>
-  </si>
-  <si>
-    <t>16/01/2021</t>
-  </si>
-  <si>
-    <t>16/01/2022</t>
-  </si>
-  <si>
-    <t>16/02/2021</t>
-  </si>
-  <si>
-    <t>16/02/2022</t>
-  </si>
-  <si>
-    <t>16/03/2021</t>
-  </si>
-  <si>
-    <t>16/04/2021</t>
-  </si>
-  <si>
-    <t>16/05/2021</t>
-  </si>
-  <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>16/08/2021</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>16/10/2021</t>
-  </si>
-  <si>
-    <t>16/11/2021</t>
-  </si>
-  <si>
-    <t>16/12/2021</t>
-  </si>
-  <si>
-    <t>17/01/2021</t>
-  </si>
-  <si>
-    <t>17/01/2022</t>
-  </si>
-  <si>
-    <t>17/02/2021</t>
-  </si>
-  <si>
-    <t>17/02/2022</t>
-  </si>
-  <si>
-    <t>17/03/2021</t>
-  </si>
-  <si>
-    <t>17/04/2021</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>17/06/2021</t>
-  </si>
-  <si>
-    <t>17/07/2021</t>
-  </si>
-  <si>
-    <t>17/08/2021</t>
-  </si>
-  <si>
-    <t>17/09/2021</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>17/11/2021</t>
-  </si>
-  <si>
-    <t>17/12/2021</t>
-  </si>
-  <si>
-    <t>18/01/2021</t>
-  </si>
-  <si>
-    <t>18/01/2022</t>
-  </si>
-  <si>
-    <t>18/02/2021</t>
-  </si>
-  <si>
-    <t>18/02/2022</t>
-  </si>
-  <si>
-    <t>18/03/2021</t>
-  </si>
-  <si>
-    <t>18/04/2021</t>
-  </si>
-  <si>
-    <t>18/05/2021</t>
-  </si>
-  <si>
-    <t>18/06/2021</t>
-  </si>
-  <si>
-    <t>18/07/2021</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>18/09/2021</t>
-  </si>
-  <si>
-    <t>18/10/2021</t>
-  </si>
-  <si>
-    <t>18/11/2021</t>
-  </si>
-  <si>
-    <t>18/12/2021</t>
-  </si>
-  <si>
-    <t>19/01/2021</t>
-  </si>
-  <si>
-    <t>19/01/2022</t>
-  </si>
-  <si>
-    <t>19/02/2021</t>
-  </si>
-  <si>
-    <t>19/02/2022</t>
-  </si>
-  <si>
-    <t>19/03/2021</t>
-  </si>
-  <si>
-    <t>19/04/2021</t>
-  </si>
-  <si>
-    <t>19/05/2021</t>
-  </si>
-  <si>
-    <t>19/06/2021</t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
-  </si>
-  <si>
-    <t>19/09/2021</t>
-  </si>
-  <si>
-    <t>19/10/2021</t>
-  </si>
-  <si>
-    <t>19/11/2021</t>
-  </si>
-  <si>
-    <t>19/12/2021</t>
-  </si>
-  <si>
-    <t>20/01/2021</t>
-  </si>
-  <si>
-    <t>20/01/2022</t>
-  </si>
-  <si>
-    <t>20/02/2021</t>
-  </si>
-  <si>
-    <t>20/02/2022</t>
-  </si>
-  <si>
-    <t>20/03/2021</t>
-  </si>
-  <si>
-    <t>20/04/2021</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
-    <t>20/06/2021</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
-  </si>
-  <si>
-    <t>20/08/2021</t>
-  </si>
-  <si>
-    <t>20/09/2021</t>
-  </si>
-  <si>
-    <t>20/10/2021</t>
-  </si>
-  <si>
-    <t>20/11/2021</t>
-  </si>
-  <si>
-    <t>20/12/2021</t>
-  </si>
-  <si>
-    <t>21/01/2021</t>
-  </si>
-  <si>
-    <t>21/01/2022</t>
-  </si>
-  <si>
-    <t>21/02/2021</t>
-  </si>
-  <si>
-    <t>21/02/2022</t>
-  </si>
-  <si>
-    <t>21/03/2021</t>
-  </si>
-  <si>
-    <t>21/04/2021</t>
-  </si>
-  <si>
-    <t>21/05/2021</t>
-  </si>
-  <si>
-    <t>21/06/2021</t>
-  </si>
-  <si>
-    <t>21/07/2021</t>
-  </si>
-  <si>
-    <t>21/08/2021</t>
-  </si>
-  <si>
-    <t>21/09/2021</t>
-  </si>
-  <si>
-    <t>21/10/2021</t>
-  </si>
-  <si>
-    <t>21/11/2021</t>
-  </si>
-  <si>
-    <t>21/12/2021</t>
-  </si>
-  <si>
-    <t>22/01/2021</t>
-  </si>
-  <si>
-    <t>22/01/2022</t>
-  </si>
-  <si>
-    <t>22/02/2021</t>
-  </si>
-  <si>
-    <t>22/02/2022</t>
-  </si>
-  <si>
-    <t>22/03/2021</t>
-  </si>
-  <si>
-    <t>22/04/2021</t>
-  </si>
-  <si>
-    <t>22/05/2021</t>
-  </si>
-  <si>
-    <t>22/06/2021</t>
-  </si>
-  <si>
-    <t>22/07/2021</t>
-  </si>
-  <si>
-    <t>22/08/2021</t>
-  </si>
-  <si>
-    <t>22/09/2021</t>
-  </si>
-  <si>
-    <t>22/10/2021</t>
-  </si>
-  <si>
-    <t>22/11/2021</t>
-  </si>
-  <si>
-    <t>22/12/2021</t>
-  </si>
-  <si>
-    <t>23/01/2021</t>
-  </si>
-  <si>
-    <t>23/01/2022</t>
-  </si>
-  <si>
-    <t>23/02/2021</t>
-  </si>
-  <si>
-    <t>23/02/2022</t>
-  </si>
-  <si>
-    <t>23/03/2021</t>
-  </si>
-  <si>
-    <t>23/04/2021</t>
-  </si>
-  <si>
-    <t>23/05/2021</t>
-  </si>
-  <si>
-    <t>23/06/2021</t>
-  </si>
-  <si>
-    <t>23/07/2021</t>
-  </si>
-  <si>
-    <t>23/08/2021</t>
-  </si>
-  <si>
-    <t>23/09/2021</t>
-  </si>
-  <si>
-    <t>23/10/2021</t>
-  </si>
-  <si>
-    <t>23/11/2021</t>
-  </si>
-  <si>
-    <t>23/12/2021</t>
-  </si>
-  <si>
-    <t>24/01/2021</t>
-  </si>
-  <si>
-    <t>24/01/2022</t>
-  </si>
-  <si>
-    <t>24/02/2021</t>
-  </si>
-  <si>
-    <t>24/02/2022</t>
-  </si>
-  <si>
-    <t>24/03/2021</t>
-  </si>
-  <si>
-    <t>24/04/2021</t>
-  </si>
-  <si>
-    <t>24/05/2021</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>24/07/2021</t>
-  </si>
-  <si>
-    <t>24/08/2021</t>
-  </si>
-  <si>
-    <t>24/09/2021</t>
-  </si>
-  <si>
-    <t>24/10/2021</t>
-  </si>
-  <si>
-    <t>24/11/2021</t>
-  </si>
-  <si>
-    <t>24/12/2021</t>
-  </si>
-  <si>
-    <t>25/01/2021</t>
-  </si>
-  <si>
-    <t>25/01/2022</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t>25/02/2022</t>
-  </si>
-  <si>
-    <t>25/03/2021</t>
-  </si>
-  <si>
-    <t>25/04/2021</t>
-  </si>
-  <si>
-    <t>25/05/2021</t>
-  </si>
-  <si>
-    <t>25/06/2021</t>
-  </si>
-  <si>
-    <t>25/07/2021</t>
-  </si>
-  <si>
-    <t>25/08/2021</t>
-  </si>
-  <si>
-    <t>25/09/2021</t>
-  </si>
-  <si>
-    <t>25/10/2021</t>
-  </si>
-  <si>
-    <t>25/11/2021</t>
-  </si>
-  <si>
-    <t>25/12/2021</t>
-  </si>
-  <si>
-    <t>26/01/2021</t>
-  </si>
-  <si>
-    <t>26/01/2022</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
-  </si>
-  <si>
-    <t>26/02/2022</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>26/04/2021</t>
-  </si>
-  <si>
-    <t>26/05/2021</t>
-  </si>
-  <si>
-    <t>26/06/2021</t>
-  </si>
-  <si>
-    <t>26/07/2021</t>
-  </si>
-  <si>
-    <t>26/08/2021</t>
-  </si>
-  <si>
-    <t>26/09/2021</t>
-  </si>
-  <si>
-    <t>26/10/2021</t>
-  </si>
-  <si>
-    <t>26/11/2021</t>
-  </si>
-  <si>
-    <t>26/12/2021</t>
-  </si>
-  <si>
-    <t>27/01/2021</t>
-  </si>
-  <si>
-    <t>27/01/2022</t>
-  </si>
-  <si>
-    <t>27/02/2021</t>
-  </si>
-  <si>
-    <t>27/02/2022</t>
-  </si>
-  <si>
-    <t>27/03/2021</t>
-  </si>
-  <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>27/05/2021</t>
-  </si>
-  <si>
-    <t>27/06/2021</t>
-  </si>
-  <si>
-    <t>27/07/2021</t>
-  </si>
-  <si>
-    <t>27/08/2021</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
-  </si>
-  <si>
-    <t>27/11/2021</t>
-  </si>
-  <si>
-    <t>27/12/2021</t>
-  </si>
-  <si>
-    <t>28/01/2021</t>
-  </si>
-  <si>
-    <t>28/01/2022</t>
-  </si>
-  <si>
-    <t>28/02/2021</t>
-  </si>
-  <si>
-    <t>28/02/2022</t>
-  </si>
-  <si>
-    <t>28/03/2021</t>
-  </si>
-  <si>
-    <t>28/04/2021</t>
-  </si>
-  <si>
-    <t>28/05/2021</t>
-  </si>
-  <si>
-    <t>28/06/2021</t>
-  </si>
-  <si>
-    <t>28/07/2021</t>
-  </si>
-  <si>
-    <t>28/08/2021</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
-    <t>28/10/2021</t>
-  </si>
-  <si>
-    <t>28/11/2021</t>
-  </si>
-  <si>
-    <t>28/12/2021</t>
-  </si>
-  <si>
-    <t>29/01/2021</t>
-  </si>
-  <si>
-    <t>29/01/2022</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
-    <t>29/05/2021</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>29/08/2021</t>
-  </si>
-  <si>
-    <t>29/09/2021</t>
-  </si>
-  <si>
-    <t>29/10/2021</t>
-  </si>
-  <si>
-    <t>29/11/2021</t>
-  </si>
-  <si>
-    <t>29/12/2021</t>
-  </si>
-  <si>
-    <t>30/01/2021</t>
-  </si>
-  <si>
-    <t>30/01/2022</t>
-  </si>
-  <si>
-    <t>30/03/2021</t>
-  </si>
-  <si>
-    <t>30/04/2021</t>
-  </si>
-  <si>
-    <t>30/05/2021</t>
-  </si>
-  <si>
-    <t>30/06/2021</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>30/09/2021</t>
-  </si>
-  <si>
-    <t>30/10/2021</t>
-  </si>
-  <si>
-    <t>30/11/2021</t>
-  </si>
-  <si>
-    <t>30/12/2021</t>
-  </si>
-  <si>
-    <t>31/01/2021</t>
-  </si>
-  <si>
-    <t>31/01/2022</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
-    <t>31/07/2021</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>31/10/2021</t>
-  </si>
-  <si>
-    <t>31/12/2021</t>
+    <t>2021/01/01</t>
+  </si>
+  <si>
+    <t>2021/01/02</t>
+  </si>
+  <si>
+    <t>2021/01/03</t>
+  </si>
+  <si>
+    <t>2021/01/04</t>
+  </si>
+  <si>
+    <t>2021/01/05</t>
+  </si>
+  <si>
+    <t>2021/01/06</t>
+  </si>
+  <si>
+    <t>2021/01/07</t>
+  </si>
+  <si>
+    <t>2021/01/08</t>
+  </si>
+  <si>
+    <t>2021/01/09</t>
+  </si>
+  <si>
+    <t>2021/01/10</t>
+  </si>
+  <si>
+    <t>2021/01/11</t>
+  </si>
+  <si>
+    <t>2021/01/12</t>
+  </si>
+  <si>
+    <t>2021/01/13</t>
+  </si>
+  <si>
+    <t>2021/01/14</t>
+  </si>
+  <si>
+    <t>2021/01/15</t>
+  </si>
+  <si>
+    <t>2021/01/16</t>
+  </si>
+  <si>
+    <t>2021/01/17</t>
+  </si>
+  <si>
+    <t>2021/01/18</t>
+  </si>
+  <si>
+    <t>2021/01/19</t>
+  </si>
+  <si>
+    <t>2021/01/20</t>
+  </si>
+  <si>
+    <t>2021/01/21</t>
+  </si>
+  <si>
+    <t>2021/01/22</t>
+  </si>
+  <si>
+    <t>2021/01/23</t>
+  </si>
+  <si>
+    <t>2021/01/24</t>
+  </si>
+  <si>
+    <t>2021/01/25</t>
+  </si>
+  <si>
+    <t>2021/01/26</t>
+  </si>
+  <si>
+    <t>2021/01/27</t>
+  </si>
+  <si>
+    <t>2021/01/28</t>
+  </si>
+  <si>
+    <t>2021/01/29</t>
+  </si>
+  <si>
+    <t>2021/01/30</t>
+  </si>
+  <si>
+    <t>2021/01/31</t>
+  </si>
+  <si>
+    <t>2021/02/01</t>
+  </si>
+  <si>
+    <t>2021/02/02</t>
+  </si>
+  <si>
+    <t>2021/02/03</t>
+  </si>
+  <si>
+    <t>2021/02/04</t>
+  </si>
+  <si>
+    <t>2021/02/05</t>
+  </si>
+  <si>
+    <t>2021/02/06</t>
+  </si>
+  <si>
+    <t>2021/02/07</t>
+  </si>
+  <si>
+    <t>2021/02/08</t>
+  </si>
+  <si>
+    <t>2021/02/09</t>
+  </si>
+  <si>
+    <t>2021/02/10</t>
+  </si>
+  <si>
+    <t>2021/02/11</t>
+  </si>
+  <si>
+    <t>2021/02/12</t>
+  </si>
+  <si>
+    <t>2021/02/13</t>
+  </si>
+  <si>
+    <t>2021/02/14</t>
+  </si>
+  <si>
+    <t>2021/02/15</t>
+  </si>
+  <si>
+    <t>2021/02/16</t>
+  </si>
+  <si>
+    <t>2021/02/17</t>
+  </si>
+  <si>
+    <t>2021/02/18</t>
+  </si>
+  <si>
+    <t>2021/02/19</t>
+  </si>
+  <si>
+    <t>2021/02/20</t>
+  </si>
+  <si>
+    <t>2021/02/21</t>
+  </si>
+  <si>
+    <t>2021/02/22</t>
+  </si>
+  <si>
+    <t>2021/02/23</t>
+  </si>
+  <si>
+    <t>2021/02/24</t>
+  </si>
+  <si>
+    <t>2021/02/25</t>
+  </si>
+  <si>
+    <t>2021/02/26</t>
+  </si>
+  <si>
+    <t>2021/02/27</t>
+  </si>
+  <si>
+    <t>2021/02/28</t>
+  </si>
+  <si>
+    <t>2021/03/01</t>
+  </si>
+  <si>
+    <t>2021/03/02</t>
+  </si>
+  <si>
+    <t>2021/03/03</t>
+  </si>
+  <si>
+    <t>2021/03/04</t>
+  </si>
+  <si>
+    <t>2021/03/05</t>
+  </si>
+  <si>
+    <t>2021/03/06</t>
+  </si>
+  <si>
+    <t>2021/03/07</t>
+  </si>
+  <si>
+    <t>2021/03/08</t>
+  </si>
+  <si>
+    <t>2021/03/09</t>
+  </si>
+  <si>
+    <t>2021/03/10</t>
+  </si>
+  <si>
+    <t>2021/03/11</t>
+  </si>
+  <si>
+    <t>2021/03/12</t>
+  </si>
+  <si>
+    <t>2021/03/13</t>
+  </si>
+  <si>
+    <t>2021/03/14</t>
+  </si>
+  <si>
+    <t>2021/03/15</t>
+  </si>
+  <si>
+    <t>2021/03/16</t>
+  </si>
+  <si>
+    <t>2021/03/17</t>
+  </si>
+  <si>
+    <t>2021/03/18</t>
+  </si>
+  <si>
+    <t>2021/03/19</t>
+  </si>
+  <si>
+    <t>2021/03/20</t>
+  </si>
+  <si>
+    <t>2021/03/21</t>
+  </si>
+  <si>
+    <t>2021/03/22</t>
+  </si>
+  <si>
+    <t>2021/03/23</t>
+  </si>
+  <si>
+    <t>2021/03/24</t>
+  </si>
+  <si>
+    <t>2021/03/25</t>
+  </si>
+  <si>
+    <t>2021/03/26</t>
+  </si>
+  <si>
+    <t>2021/03/27</t>
+  </si>
+  <si>
+    <t>2021/03/28</t>
+  </si>
+  <si>
+    <t>2021/03/29</t>
+  </si>
+  <si>
+    <t>2021/03/30</t>
+  </si>
+  <si>
+    <t>2021/03/31</t>
+  </si>
+  <si>
+    <t>2021/04/01</t>
+  </si>
+  <si>
+    <t>2021/04/02</t>
+  </si>
+  <si>
+    <t>2021/04/03</t>
+  </si>
+  <si>
+    <t>2021/04/04</t>
+  </si>
+  <si>
+    <t>2021/04/05</t>
+  </si>
+  <si>
+    <t>2021/04/06</t>
+  </si>
+  <si>
+    <t>2021/04/07</t>
+  </si>
+  <si>
+    <t>2021/04/08</t>
+  </si>
+  <si>
+    <t>2021/04/09</t>
+  </si>
+  <si>
+    <t>2021/04/10</t>
+  </si>
+  <si>
+    <t>2021/04/11</t>
+  </si>
+  <si>
+    <t>2021/04/12</t>
+  </si>
+  <si>
+    <t>2021/04/13</t>
+  </si>
+  <si>
+    <t>2021/04/14</t>
+  </si>
+  <si>
+    <t>2021/04/15</t>
+  </si>
+  <si>
+    <t>2021/04/16</t>
+  </si>
+  <si>
+    <t>2021/04/17</t>
+  </si>
+  <si>
+    <t>2021/04/18</t>
+  </si>
+  <si>
+    <t>2021/04/19</t>
+  </si>
+  <si>
+    <t>2021/04/20</t>
+  </si>
+  <si>
+    <t>2021/04/21</t>
+  </si>
+  <si>
+    <t>2021/04/22</t>
+  </si>
+  <si>
+    <t>2021/04/23</t>
+  </si>
+  <si>
+    <t>2021/04/24</t>
+  </si>
+  <si>
+    <t>2021/04/25</t>
+  </si>
+  <si>
+    <t>2021/04/26</t>
+  </si>
+  <si>
+    <t>2021/04/27</t>
+  </si>
+  <si>
+    <t>2021/04/28</t>
+  </si>
+  <si>
+    <t>2021/04/29</t>
+  </si>
+  <si>
+    <t>2021/04/30</t>
+  </si>
+  <si>
+    <t>2021/05/01</t>
+  </si>
+  <si>
+    <t>2021/05/02</t>
+  </si>
+  <si>
+    <t>2021/05/03</t>
+  </si>
+  <si>
+    <t>2021/05/04</t>
+  </si>
+  <si>
+    <t>2021/05/05</t>
+  </si>
+  <si>
+    <t>2021/05/06</t>
+  </si>
+  <si>
+    <t>2021/05/07</t>
+  </si>
+  <si>
+    <t>2021/05/08</t>
+  </si>
+  <si>
+    <t>2021/05/09</t>
+  </si>
+  <si>
+    <t>2021/05/10</t>
+  </si>
+  <si>
+    <t>2021/05/11</t>
+  </si>
+  <si>
+    <t>2021/05/12</t>
+  </si>
+  <si>
+    <t>2021/05/13</t>
+  </si>
+  <si>
+    <t>2021/05/14</t>
+  </si>
+  <si>
+    <t>2021/05/15</t>
+  </si>
+  <si>
+    <t>2021/05/16</t>
+  </si>
+  <si>
+    <t>2021/05/17</t>
+  </si>
+  <si>
+    <t>2021/05/18</t>
+  </si>
+  <si>
+    <t>2021/05/19</t>
+  </si>
+  <si>
+    <t>2021/05/20</t>
+  </si>
+  <si>
+    <t>2021/05/21</t>
+  </si>
+  <si>
+    <t>2021/05/22</t>
+  </si>
+  <si>
+    <t>2021/05/23</t>
+  </si>
+  <si>
+    <t>2021/05/24</t>
+  </si>
+  <si>
+    <t>2021/05/25</t>
+  </si>
+  <si>
+    <t>2021/05/26</t>
+  </si>
+  <si>
+    <t>2021/05/27</t>
+  </si>
+  <si>
+    <t>2021/05/28</t>
+  </si>
+  <si>
+    <t>2021/05/29</t>
+  </si>
+  <si>
+    <t>2021/05/30</t>
+  </si>
+  <si>
+    <t>2021/05/31</t>
+  </si>
+  <si>
+    <t>2021/06/01</t>
+  </si>
+  <si>
+    <t>2021/06/02</t>
+  </si>
+  <si>
+    <t>2021/06/03</t>
+  </si>
+  <si>
+    <t>2021/06/04</t>
+  </si>
+  <si>
+    <t>2021/06/05</t>
+  </si>
+  <si>
+    <t>2021/06/06</t>
+  </si>
+  <si>
+    <t>2021/06/07</t>
+  </si>
+  <si>
+    <t>2021/06/08</t>
+  </si>
+  <si>
+    <t>2021/06/09</t>
+  </si>
+  <si>
+    <t>2021/06/10</t>
+  </si>
+  <si>
+    <t>2021/06/11</t>
+  </si>
+  <si>
+    <t>2021/06/12</t>
+  </si>
+  <si>
+    <t>2021/06/13</t>
+  </si>
+  <si>
+    <t>2021/06/14</t>
+  </si>
+  <si>
+    <t>2021/06/15</t>
+  </si>
+  <si>
+    <t>2021/06/16</t>
+  </si>
+  <si>
+    <t>2021/06/17</t>
+  </si>
+  <si>
+    <t>2021/06/18</t>
+  </si>
+  <si>
+    <t>2021/06/19</t>
+  </si>
+  <si>
+    <t>2021/06/20</t>
+  </si>
+  <si>
+    <t>2021/06/21</t>
+  </si>
+  <si>
+    <t>2021/06/22</t>
+  </si>
+  <si>
+    <t>2021/06/23</t>
+  </si>
+  <si>
+    <t>2021/06/24</t>
+  </si>
+  <si>
+    <t>2021/06/25</t>
+  </si>
+  <si>
+    <t>2021/06/26</t>
+  </si>
+  <si>
+    <t>2021/06/27</t>
+  </si>
+  <si>
+    <t>2021/06/28</t>
+  </si>
+  <si>
+    <t>2021/06/29</t>
+  </si>
+  <si>
+    <t>2021/06/30</t>
+  </si>
+  <si>
+    <t>2021/07/01</t>
+  </si>
+  <si>
+    <t>2021/07/02</t>
+  </si>
+  <si>
+    <t>2021/07/03</t>
+  </si>
+  <si>
+    <t>2021/07/04</t>
+  </si>
+  <si>
+    <t>2021/07/05</t>
+  </si>
+  <si>
+    <t>2021/07/06</t>
+  </si>
+  <si>
+    <t>2021/07/07</t>
+  </si>
+  <si>
+    <t>2021/07/08</t>
+  </si>
+  <si>
+    <t>2021/07/09</t>
+  </si>
+  <si>
+    <t>2021/07/10</t>
+  </si>
+  <si>
+    <t>2021/07/11</t>
+  </si>
+  <si>
+    <t>2021/07/12</t>
+  </si>
+  <si>
+    <t>2021/07/13</t>
+  </si>
+  <si>
+    <t>2021/07/14</t>
+  </si>
+  <si>
+    <t>2021/07/15</t>
+  </si>
+  <si>
+    <t>2021/07/16</t>
+  </si>
+  <si>
+    <t>2021/07/17</t>
+  </si>
+  <si>
+    <t>2021/07/18</t>
+  </si>
+  <si>
+    <t>2021/07/19</t>
+  </si>
+  <si>
+    <t>2021/07/20</t>
+  </si>
+  <si>
+    <t>2021/07/21</t>
+  </si>
+  <si>
+    <t>2021/07/22</t>
+  </si>
+  <si>
+    <t>2021/07/23</t>
+  </si>
+  <si>
+    <t>2021/07/24</t>
+  </si>
+  <si>
+    <t>2021/07/25</t>
+  </si>
+  <si>
+    <t>2021/07/26</t>
+  </si>
+  <si>
+    <t>2021/07/27</t>
+  </si>
+  <si>
+    <t>2021/07/28</t>
+  </si>
+  <si>
+    <t>2021/07/29</t>
+  </si>
+  <si>
+    <t>2021/07/30</t>
+  </si>
+  <si>
+    <t>2021/07/31</t>
+  </si>
+  <si>
+    <t>2021/08/01</t>
+  </si>
+  <si>
+    <t>2021/08/02</t>
+  </si>
+  <si>
+    <t>2021/08/03</t>
+  </si>
+  <si>
+    <t>2021/08/04</t>
+  </si>
+  <si>
+    <t>2021/08/05</t>
+  </si>
+  <si>
+    <t>2021/08/06</t>
+  </si>
+  <si>
+    <t>2021/08/07</t>
+  </si>
+  <si>
+    <t>2021/08/08</t>
+  </si>
+  <si>
+    <t>2021/08/09</t>
+  </si>
+  <si>
+    <t>2021/08/10</t>
+  </si>
+  <si>
+    <t>2021/08/11</t>
+  </si>
+  <si>
+    <t>2021/08/12</t>
+  </si>
+  <si>
+    <t>2021/08/13</t>
+  </si>
+  <si>
+    <t>2021/08/14</t>
+  </si>
+  <si>
+    <t>2021/08/15</t>
+  </si>
+  <si>
+    <t>2021/08/16</t>
+  </si>
+  <si>
+    <t>2021/08/17</t>
+  </si>
+  <si>
+    <t>2021/08/18</t>
+  </si>
+  <si>
+    <t>2021/08/19</t>
+  </si>
+  <si>
+    <t>2021/08/20</t>
+  </si>
+  <si>
+    <t>2021/08/21</t>
+  </si>
+  <si>
+    <t>2021/08/22</t>
+  </si>
+  <si>
+    <t>2021/08/23</t>
+  </si>
+  <si>
+    <t>2021/08/24</t>
+  </si>
+  <si>
+    <t>2021/08/25</t>
+  </si>
+  <si>
+    <t>2021/08/26</t>
+  </si>
+  <si>
+    <t>2021/08/27</t>
+  </si>
+  <si>
+    <t>2021/08/28</t>
+  </si>
+  <si>
+    <t>2021/08/29</t>
+  </si>
+  <si>
+    <t>2021/08/30</t>
+  </si>
+  <si>
+    <t>2021/08/31</t>
+  </si>
+  <si>
+    <t>2021/09/01</t>
+  </si>
+  <si>
+    <t>2021/09/02</t>
+  </si>
+  <si>
+    <t>2021/09/03</t>
+  </si>
+  <si>
+    <t>2021/09/04</t>
+  </si>
+  <si>
+    <t>2021/09/05</t>
+  </si>
+  <si>
+    <t>2021/09/06</t>
+  </si>
+  <si>
+    <t>2021/09/07</t>
+  </si>
+  <si>
+    <t>2021/09/08</t>
+  </si>
+  <si>
+    <t>2021/09/09</t>
+  </si>
+  <si>
+    <t>2021/09/10</t>
+  </si>
+  <si>
+    <t>2021/09/11</t>
+  </si>
+  <si>
+    <t>2021/09/12</t>
+  </si>
+  <si>
+    <t>2021/09/13</t>
+  </si>
+  <si>
+    <t>2021/09/14</t>
+  </si>
+  <si>
+    <t>2021/09/15</t>
+  </si>
+  <si>
+    <t>2021/09/16</t>
+  </si>
+  <si>
+    <t>2021/09/17</t>
+  </si>
+  <si>
+    <t>2021/09/18</t>
+  </si>
+  <si>
+    <t>2021/09/19</t>
+  </si>
+  <si>
+    <t>2021/09/20</t>
+  </si>
+  <si>
+    <t>2021/09/21</t>
+  </si>
+  <si>
+    <t>2021/09/22</t>
+  </si>
+  <si>
+    <t>2021/09/23</t>
+  </si>
+  <si>
+    <t>2021/09/24</t>
+  </si>
+  <si>
+    <t>2021/09/25</t>
+  </si>
+  <si>
+    <t>2021/09/26</t>
+  </si>
+  <si>
+    <t>2021/09/27</t>
+  </si>
+  <si>
+    <t>2021/09/28</t>
+  </si>
+  <si>
+    <t>2021/09/29</t>
+  </si>
+  <si>
+    <t>2021/09/30</t>
+  </si>
+  <si>
+    <t>2021/10/01</t>
+  </si>
+  <si>
+    <t>2021/10/02</t>
+  </si>
+  <si>
+    <t>2021/10/03</t>
+  </si>
+  <si>
+    <t>2021/10/04</t>
+  </si>
+  <si>
+    <t>2021/10/05</t>
+  </si>
+  <si>
+    <t>2021/10/06</t>
+  </si>
+  <si>
+    <t>2021/10/07</t>
+  </si>
+  <si>
+    <t>2021/10/08</t>
+  </si>
+  <si>
+    <t>2021/10/09</t>
+  </si>
+  <si>
+    <t>2021/10/10</t>
+  </si>
+  <si>
+    <t>2021/10/11</t>
+  </si>
+  <si>
+    <t>2021/10/12</t>
+  </si>
+  <si>
+    <t>2021/10/13</t>
+  </si>
+  <si>
+    <t>2021/10/14</t>
+  </si>
+  <si>
+    <t>2021/10/15</t>
+  </si>
+  <si>
+    <t>2021/10/16</t>
+  </si>
+  <si>
+    <t>2021/10/17</t>
+  </si>
+  <si>
+    <t>2021/10/18</t>
+  </si>
+  <si>
+    <t>2021/10/19</t>
+  </si>
+  <si>
+    <t>2021/10/20</t>
+  </si>
+  <si>
+    <t>2021/10/21</t>
+  </si>
+  <si>
+    <t>2021/10/22</t>
+  </si>
+  <si>
+    <t>2021/10/23</t>
+  </si>
+  <si>
+    <t>2021/10/24</t>
+  </si>
+  <si>
+    <t>2021/10/25</t>
+  </si>
+  <si>
+    <t>2021/10/26</t>
+  </si>
+  <si>
+    <t>2021/10/27</t>
+  </si>
+  <si>
+    <t>2021/10/28</t>
+  </si>
+  <si>
+    <t>2021/10/29</t>
+  </si>
+  <si>
+    <t>2021/10/30</t>
+  </si>
+  <si>
+    <t>2021/10/31</t>
+  </si>
+  <si>
+    <t>2021/11/01</t>
+  </si>
+  <si>
+    <t>2021/11/02</t>
+  </si>
+  <si>
+    <t>2021/11/03</t>
+  </si>
+  <si>
+    <t>2021/11/04</t>
+  </si>
+  <si>
+    <t>2021/11/05</t>
+  </si>
+  <si>
+    <t>2021/11/06</t>
+  </si>
+  <si>
+    <t>2021/11/07</t>
+  </si>
+  <si>
+    <t>2021/11/08</t>
+  </si>
+  <si>
+    <t>2021/11/09</t>
+  </si>
+  <si>
+    <t>2021/11/10</t>
+  </si>
+  <si>
+    <t>2021/11/11</t>
+  </si>
+  <si>
+    <t>2021/11/12</t>
+  </si>
+  <si>
+    <t>2021/11/13</t>
+  </si>
+  <si>
+    <t>2021/11/14</t>
+  </si>
+  <si>
+    <t>2021/11/15</t>
+  </si>
+  <si>
+    <t>2021/11/16</t>
+  </si>
+  <si>
+    <t>2021/11/17</t>
+  </si>
+  <si>
+    <t>2021/11/18</t>
+  </si>
+  <si>
+    <t>2021/11/19</t>
+  </si>
+  <si>
+    <t>2021/11/20</t>
+  </si>
+  <si>
+    <t>2021/11/21</t>
+  </si>
+  <si>
+    <t>2021/11/22</t>
+  </si>
+  <si>
+    <t>2021/11/23</t>
+  </si>
+  <si>
+    <t>2021/11/24</t>
+  </si>
+  <si>
+    <t>2021/11/25</t>
+  </si>
+  <si>
+    <t>2021/11/26</t>
+  </si>
+  <si>
+    <t>2021/11/27</t>
+  </si>
+  <si>
+    <t>2021/11/28</t>
+  </si>
+  <si>
+    <t>2021/11/29</t>
+  </si>
+  <si>
+    <t>2021/11/30</t>
+  </si>
+  <si>
+    <t>2021/12/01</t>
+  </si>
+  <si>
+    <t>2021/12/02</t>
+  </si>
+  <si>
+    <t>2021/12/03</t>
+  </si>
+  <si>
+    <t>2021/12/04</t>
+  </si>
+  <si>
+    <t>2021/12/05</t>
+  </si>
+  <si>
+    <t>2021/12/06</t>
+  </si>
+  <si>
+    <t>2021/12/07</t>
+  </si>
+  <si>
+    <t>2021/12/08</t>
+  </si>
+  <si>
+    <t>2021/12/09</t>
+  </si>
+  <si>
+    <t>2021/12/10</t>
+  </si>
+  <si>
+    <t>2021/12/11</t>
+  </si>
+  <si>
+    <t>2021/12/12</t>
+  </si>
+  <si>
+    <t>2021/12/13</t>
+  </si>
+  <si>
+    <t>2021/12/14</t>
+  </si>
+  <si>
+    <t>2021/12/15</t>
+  </si>
+  <si>
+    <t>2021/12/16</t>
+  </si>
+  <si>
+    <t>2021/12/17</t>
+  </si>
+  <si>
+    <t>2021/12/18</t>
+  </si>
+  <si>
+    <t>2021/12/19</t>
+  </si>
+  <si>
+    <t>2021/12/20</t>
+  </si>
+  <si>
+    <t>2021/12/21</t>
+  </si>
+  <si>
+    <t>2021/12/22</t>
+  </si>
+  <si>
+    <t>2021/12/23</t>
+  </si>
+  <si>
+    <t>2021/12/24</t>
+  </si>
+  <si>
+    <t>2021/12/25</t>
+  </si>
+  <si>
+    <t>2021/12/26</t>
+  </si>
+  <si>
+    <t>2021/12/27</t>
+  </si>
+  <si>
+    <t>2021/12/28</t>
+  </si>
+  <si>
+    <t>2021/12/29</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
+  </si>
+  <si>
+    <t>2021/12/31</t>
+  </si>
+  <si>
+    <t>2022/01/01</t>
+  </si>
+  <si>
+    <t>2022/01/02</t>
+  </si>
+  <si>
+    <t>2022/01/03</t>
+  </si>
+  <si>
+    <t>2022/01/04</t>
+  </si>
+  <si>
+    <t>2022/01/05</t>
+  </si>
+  <si>
+    <t>2022/01/06</t>
+  </si>
+  <si>
+    <t>2022/01/07</t>
+  </si>
+  <si>
+    <t>2022/01/08</t>
+  </si>
+  <si>
+    <t>2022/01/09</t>
+  </si>
+  <si>
+    <t>2022/01/10</t>
+  </si>
+  <si>
+    <t>2022/01/11</t>
+  </si>
+  <si>
+    <t>2022/01/12</t>
+  </si>
+  <si>
+    <t>2022/01/13</t>
+  </si>
+  <si>
+    <t>2022/01/14</t>
+  </si>
+  <si>
+    <t>2022/01/15</t>
+  </si>
+  <si>
+    <t>2022/01/16</t>
+  </si>
+  <si>
+    <t>2022/01/17</t>
+  </si>
+  <si>
+    <t>2022/01/18</t>
+  </si>
+  <si>
+    <t>2022/01/19</t>
+  </si>
+  <si>
+    <t>2022/01/20</t>
+  </si>
+  <si>
+    <t>2022/01/21</t>
+  </si>
+  <si>
+    <t>2022/01/22</t>
+  </si>
+  <si>
+    <t>2022/01/23</t>
+  </si>
+  <si>
+    <t>2022/01/24</t>
+  </si>
+  <si>
+    <t>2022/01/25</t>
+  </si>
+  <si>
+    <t>2022/01/26</t>
+  </si>
+  <si>
+    <t>2022/01/27</t>
+  </si>
+  <si>
+    <t>2022/01/28</t>
+  </si>
+  <si>
+    <t>2022/01/29</t>
+  </si>
+  <si>
+    <t>2022/01/30</t>
+  </si>
+  <si>
+    <t>2022/01/31</t>
+  </si>
+  <si>
+    <t>2022/02/01</t>
+  </si>
+  <si>
+    <t>2022/02/02</t>
+  </si>
+  <si>
+    <t>2022/02/03</t>
+  </si>
+  <si>
+    <t>2022/02/04</t>
+  </si>
+  <si>
+    <t>2022/02/05</t>
+  </si>
+  <si>
+    <t>2022/02/06</t>
+  </si>
+  <si>
+    <t>2022/02/07</t>
+  </si>
+  <si>
+    <t>2022/02/08</t>
+  </si>
+  <si>
+    <t>2022/02/09</t>
+  </si>
+  <si>
+    <t>2022/02/10</t>
+  </si>
+  <si>
+    <t>2022/02/11</t>
+  </si>
+  <si>
+    <t>2022/02/12</t>
+  </si>
+  <si>
+    <t>2022/02/13</t>
+  </si>
+  <si>
+    <t>2022/02/14</t>
+  </si>
+  <si>
+    <t>2022/02/15</t>
+  </si>
+  <si>
+    <t>2022/02/16</t>
+  </si>
+  <si>
+    <t>2022/02/17</t>
+  </si>
+  <si>
+    <t>2022/02/18</t>
+  </si>
+  <si>
+    <t>2022/02/19</t>
+  </si>
+  <si>
+    <t>2022/02/20</t>
+  </si>
+  <si>
+    <t>2022/02/21</t>
+  </si>
+  <si>
+    <t>2022/02/22</t>
+  </si>
+  <si>
+    <t>2022/02/23</t>
+  </si>
+  <si>
+    <t>2022/02/24</t>
+  </si>
+  <si>
+    <t>2022/02/25</t>
+  </si>
+  <si>
+    <t>2022/02/26</t>
+  </si>
+  <si>
+    <t>2022/02/27</t>
+  </si>
+  <si>
+    <t>2022/02/28</t>
+  </si>
+  <si>
+    <t>2022/03/01</t>
+  </si>
+  <si>
+    <t>2022/03/02</t>
+  </si>
+  <si>
+    <t>2022/03/03</t>
+  </si>
+  <si>
+    <t>2022/03/04</t>
+  </si>
+  <si>
+    <t>2022/03/05</t>
+  </si>
+  <si>
+    <t>2022/03/06</t>
+  </si>
+  <si>
+    <t>2022/03/07</t>
+  </si>
+  <si>
+    <t>2022/03/08</t>
+  </si>
+  <si>
+    <t>2022/03/09</t>
+  </si>
+  <si>
+    <t>2022/03/10</t>
+  </si>
+  <si>
+    <t>2022/03/11</t>
+  </si>
+  <si>
+    <t>2022/03/12</t>
+  </si>
+  <si>
+    <t>2022/03/13</t>
   </si>
   <si>
     <t>Santa Cruz de Tenerife</t>
@@ -3021,1309 +3021,1309 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>827</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>882</v>
+        <v>207</v>
       </c>
       <c r="E2">
-        <v>1391</v>
+        <v>341</v>
       </c>
       <c r="F2">
-        <v>1466</v>
+        <v>445</v>
       </c>
       <c r="G2">
-        <v>1793</v>
+        <v>551</v>
       </c>
       <c r="H2">
-        <v>1883</v>
+        <v>644</v>
       </c>
       <c r="I2">
-        <v>1963</v>
+        <v>750</v>
       </c>
       <c r="J2">
-        <v>2047</v>
+        <v>832</v>
       </c>
       <c r="K2">
-        <v>2276</v>
+        <v>902</v>
       </c>
       <c r="L2">
-        <v>2553</v>
+        <v>957</v>
       </c>
       <c r="M2">
-        <v>2648</v>
+        <v>1033</v>
       </c>
       <c r="N2">
-        <v>2687</v>
+        <v>1124</v>
       </c>
       <c r="O2">
-        <v>2714</v>
+        <v>1201</v>
       </c>
       <c r="P2">
-        <v>2921</v>
+        <v>1271</v>
       </c>
       <c r="Q2">
-        <v>3008</v>
+        <v>1309</v>
       </c>
       <c r="R2">
-        <v>3964</v>
+        <v>1341</v>
       </c>
       <c r="S2">
-        <v>3990</v>
+        <v>1387</v>
       </c>
       <c r="T2">
-        <v>4339</v>
+        <v>1452</v>
       </c>
       <c r="U2">
-        <v>4419</v>
+        <v>1511</v>
       </c>
       <c r="V2">
-        <v>5398</v>
+        <v>1584</v>
       </c>
       <c r="W2">
-        <v>5443</v>
+        <v>1670</v>
       </c>
       <c r="X2">
-        <v>5507</v>
+        <v>1736</v>
       </c>
       <c r="Y2">
-        <v>5587</v>
+        <v>1760</v>
       </c>
       <c r="Z2">
-        <v>5823</v>
+        <v>1829</v>
       </c>
       <c r="AA2">
-        <v>6168</v>
+        <v>1903</v>
       </c>
       <c r="AB2">
-        <v>6252</v>
+        <v>1948</v>
       </c>
       <c r="AC2">
-        <v>6276</v>
+        <v>2007</v>
       </c>
       <c r="AD2">
-        <v>6322</v>
+        <v>2080</v>
       </c>
       <c r="AE2">
-        <v>6544</v>
+        <v>2109</v>
       </c>
       <c r="AF2">
-        <v>6597</v>
+        <v>2129</v>
       </c>
       <c r="AG2">
-        <v>9247</v>
+        <v>2184</v>
       </c>
       <c r="AH2">
-        <v>9358</v>
+        <v>2210</v>
       </c>
       <c r="AI2">
-        <v>9925</v>
+        <v>2321</v>
       </c>
       <c r="AJ2">
-        <v>10014</v>
+        <v>2384</v>
       </c>
       <c r="AK2">
-        <v>11004</v>
+        <v>2441</v>
       </c>
       <c r="AL2">
-        <v>11074</v>
+        <v>2483</v>
       </c>
       <c r="AM2">
-        <v>11142</v>
+        <v>2525</v>
       </c>
       <c r="AN2">
-        <v>11220</v>
+        <v>2571</v>
       </c>
       <c r="AO2">
-        <v>11460</v>
+        <v>2630</v>
       </c>
       <c r="AP2">
-        <v>11819</v>
+        <v>2729</v>
       </c>
       <c r="AQ2">
-        <v>11873</v>
+        <v>2791</v>
       </c>
       <c r="AR2">
-        <v>11888</v>
+        <v>2845</v>
       </c>
       <c r="AS2">
-        <v>11936</v>
+        <v>2905</v>
       </c>
       <c r="AT2">
-        <v>12085</v>
+        <v>2947</v>
       </c>
       <c r="AU2">
-        <v>12219</v>
+        <v>2994</v>
       </c>
       <c r="AV2">
-        <v>15188</v>
+        <v>3065</v>
       </c>
       <c r="AW2">
-        <v>15251</v>
+        <v>3128</v>
       </c>
       <c r="AX2">
-        <v>15707</v>
+        <v>3198</v>
       </c>
       <c r="AY2">
-        <v>15805</v>
+        <v>3269</v>
       </c>
       <c r="AZ2">
-        <v>16770</v>
+        <v>3330</v>
       </c>
       <c r="BA2">
-        <v>16830</v>
+        <v>3384</v>
       </c>
       <c r="BB2">
-        <v>16919</v>
+        <v>3459</v>
       </c>
       <c r="BC2">
-        <v>16978</v>
+        <v>3542</v>
       </c>
       <c r="BD2">
-        <v>17203</v>
+        <v>3604</v>
       </c>
       <c r="BE2">
-        <v>17607</v>
+        <v>3694</v>
       </c>
       <c r="BF2">
-        <v>17642</v>
+        <v>3772</v>
       </c>
       <c r="BG2">
-        <v>17663</v>
+        <v>3839</v>
       </c>
       <c r="BH2">
-        <v>17720</v>
+        <v>3884</v>
       </c>
       <c r="BI2">
-        <v>17824</v>
+        <v>3959</v>
       </c>
       <c r="BJ2">
-        <v>17928</v>
+        <v>4039</v>
       </c>
       <c r="BK2">
-        <v>20816</v>
+        <v>4128</v>
       </c>
       <c r="BL2">
-        <v>20873</v>
+        <v>4226</v>
       </c>
       <c r="BM2">
-        <v>21136</v>
+        <v>4306</v>
       </c>
       <c r="BN2">
-        <v>21216</v>
+        <v>4387</v>
       </c>
       <c r="BO2">
-        <v>21560</v>
+        <v>4423</v>
       </c>
       <c r="BP2">
-        <v>21643</v>
+        <v>4523</v>
       </c>
       <c r="BQ2">
-        <v>21741</v>
+        <v>4631</v>
       </c>
       <c r="BR2">
-        <v>21795</v>
+        <v>4761</v>
       </c>
       <c r="BS2">
-        <v>21996</v>
+        <v>4887</v>
       </c>
       <c r="BT2">
-        <v>22318</v>
+        <v>5024</v>
       </c>
       <c r="BU2">
-        <v>22350</v>
+        <v>5102</v>
       </c>
       <c r="BV2">
-        <v>22375</v>
+        <v>5162</v>
       </c>
       <c r="BW2">
-        <v>22427</v>
+        <v>5275</v>
       </c>
       <c r="BX2">
-        <v>22546</v>
+        <v>5392</v>
       </c>
       <c r="BY2">
-        <v>22652</v>
+        <v>5486</v>
       </c>
       <c r="BZ2">
-        <v>23630</v>
+        <v>5590</v>
       </c>
       <c r="CA2">
-        <v>23672</v>
+        <v>5701</v>
       </c>
       <c r="CB2">
-        <v>23816</v>
+        <v>5793</v>
       </c>
       <c r="CC2">
-        <v>23897</v>
+        <v>5864</v>
       </c>
       <c r="CD2">
-        <v>24195</v>
+        <v>5973</v>
       </c>
       <c r="CE2">
-        <v>24303</v>
+        <v>6097</v>
       </c>
       <c r="CF2">
-        <v>24366</v>
+        <v>6222</v>
       </c>
       <c r="CG2">
-        <v>24424</v>
+        <v>6303</v>
       </c>
       <c r="CH2">
-        <v>24626</v>
+        <v>6393</v>
       </c>
       <c r="CI2">
-        <v>24988</v>
+        <v>6450</v>
       </c>
       <c r="CJ2">
-        <v>25039</v>
+        <v>6482</v>
       </c>
       <c r="CK2">
-        <v>25061</v>
+        <v>6569</v>
       </c>
       <c r="CL2">
-        <v>25118</v>
+        <v>6687</v>
       </c>
       <c r="CM2">
-        <v>25234</v>
+        <v>6797</v>
       </c>
       <c r="CN2">
-        <v>25327</v>
+        <v>6887</v>
       </c>
       <c r="CO2">
-        <v>28449</v>
+        <v>6932</v>
       </c>
       <c r="CP2">
-        <v>28491</v>
+        <v>7002</v>
       </c>
       <c r="CQ2">
-        <v>29024</v>
+        <v>7062</v>
       </c>
       <c r="CR2">
-        <v>29060</v>
+        <v>7145</v>
       </c>
       <c r="CS2">
-        <v>30023</v>
+        <v>7253</v>
       </c>
       <c r="CT2">
-        <v>30130</v>
+        <v>7360</v>
       </c>
       <c r="CU2">
-        <v>30178</v>
+        <v>7528</v>
       </c>
       <c r="CV2">
-        <v>30233</v>
+        <v>7631</v>
       </c>
       <c r="CW2">
-        <v>30579</v>
+        <v>7731</v>
       </c>
       <c r="CX2">
-        <v>30799</v>
+        <v>7838</v>
       </c>
       <c r="CY2">
-        <v>30854</v>
+        <v>7938</v>
       </c>
       <c r="CZ2">
-        <v>30892</v>
+        <v>8041</v>
       </c>
       <c r="DA2">
-        <v>30930</v>
+        <v>8162</v>
       </c>
       <c r="DB2">
-        <v>31072</v>
+        <v>8334</v>
       </c>
       <c r="DC2">
-        <v>31178</v>
+        <v>8428</v>
       </c>
       <c r="DD2">
-        <v>32734</v>
+        <v>8506</v>
       </c>
       <c r="DE2">
-        <v>32780</v>
+        <v>8613</v>
       </c>
       <c r="DF2">
-        <v>33162</v>
+        <v>8715</v>
       </c>
       <c r="DG2">
-        <v>33262</v>
+        <v>8821</v>
       </c>
       <c r="DH2">
-        <v>34315</v>
+        <v>8977</v>
       </c>
       <c r="DI2">
-        <v>34483</v>
+        <v>9076</v>
       </c>
       <c r="DJ2">
-        <v>34556</v>
+        <v>9191</v>
       </c>
       <c r="DK2">
-        <v>34646</v>
+        <v>9269</v>
       </c>
       <c r="DL2">
-        <v>34996</v>
+        <v>9314</v>
       </c>
       <c r="DM2">
-        <v>35166</v>
+        <v>9428</v>
       </c>
       <c r="DN2">
-        <v>35225</v>
+        <v>9492</v>
       </c>
       <c r="DO2">
-        <v>35269</v>
+        <v>9595</v>
       </c>
       <c r="DP2">
-        <v>35344</v>
+        <v>9680</v>
       </c>
       <c r="DQ2">
-        <v>35537</v>
+        <v>9774</v>
       </c>
       <c r="DR2">
-        <v>35619</v>
+        <v>9854</v>
       </c>
       <c r="DS2">
-        <v>36685</v>
+        <v>9918</v>
       </c>
       <c r="DT2">
-        <v>36744</v>
+        <v>9986</v>
       </c>
       <c r="DU2">
-        <v>37208</v>
+        <v>10075</v>
       </c>
       <c r="DV2">
-        <v>37316</v>
+        <v>10173</v>
       </c>
       <c r="DW2">
-        <v>38348</v>
+        <v>10236</v>
       </c>
       <c r="DX2">
-        <v>38451</v>
+        <v>10284</v>
       </c>
       <c r="DY2">
-        <v>38501</v>
+        <v>10357</v>
       </c>
       <c r="DZ2">
-        <v>38595</v>
+        <v>10407</v>
       </c>
       <c r="EA2">
-        <v>38920</v>
+        <v>10486</v>
       </c>
       <c r="EB2">
-        <v>39147</v>
+        <v>10562</v>
       </c>
       <c r="EC2">
-        <v>39193</v>
+        <v>10662</v>
       </c>
       <c r="ED2">
-        <v>39210</v>
+        <v>10728</v>
       </c>
       <c r="EE2">
-        <v>39292</v>
+        <v>10796</v>
       </c>
       <c r="EF2">
-        <v>39503</v>
+        <v>10848</v>
       </c>
       <c r="EG2">
-        <v>39573</v>
+        <v>10920</v>
       </c>
       <c r="EH2">
-        <v>43606</v>
+        <v>10982</v>
       </c>
       <c r="EI2">
-        <v>43705</v>
+        <v>11028</v>
       </c>
       <c r="EJ2">
-        <v>44090</v>
+        <v>11137</v>
       </c>
       <c r="EK2">
-        <v>44220</v>
+        <v>11229</v>
       </c>
       <c r="EL2">
-        <v>45148</v>
+        <v>11313</v>
       </c>
       <c r="EM2">
-        <v>45248</v>
+        <v>11353</v>
       </c>
       <c r="EN2">
-        <v>45327</v>
+        <v>11406</v>
       </c>
       <c r="EO2">
-        <v>45423</v>
+        <v>11458</v>
       </c>
       <c r="EP2">
-        <v>45690</v>
+        <v>11503</v>
       </c>
       <c r="EQ2">
-        <v>45917</v>
+        <v>11585</v>
       </c>
       <c r="ER2">
-        <v>45961</v>
+        <v>11653</v>
       </c>
       <c r="ES2">
-        <v>45978</v>
+        <v>11715</v>
       </c>
       <c r="ET2">
-        <v>46063</v>
+        <v>11759</v>
       </c>
       <c r="EU2">
-        <v>46355</v>
+        <v>11813</v>
       </c>
       <c r="EV2">
-        <v>46410</v>
+        <v>11861</v>
       </c>
       <c r="EW2">
-        <v>50162</v>
+        <v>11945</v>
       </c>
       <c r="EX2">
-        <v>50224</v>
+        <v>12025</v>
       </c>
       <c r="EY2">
-        <v>50596</v>
+        <v>12103</v>
       </c>
       <c r="EZ2">
-        <v>50722</v>
+        <v>12162</v>
       </c>
       <c r="FA2">
-        <v>51705</v>
+        <v>12216</v>
       </c>
       <c r="FB2">
-        <v>51812</v>
+        <v>12274</v>
       </c>
       <c r="FC2">
-        <v>51888</v>
+        <v>12329</v>
       </c>
       <c r="FD2">
-        <v>52003</v>
+        <v>12419</v>
       </c>
       <c r="FE2">
-        <v>52259</v>
+        <v>12513</v>
       </c>
       <c r="FF2">
-        <v>52503</v>
+        <v>12609</v>
       </c>
       <c r="FG2">
-        <v>52526</v>
+        <v>12724</v>
       </c>
       <c r="FH2">
-        <v>52555</v>
+        <v>12818</v>
       </c>
       <c r="FI2">
-        <v>52676</v>
+        <v>12897</v>
       </c>
       <c r="FJ2">
-        <v>52959</v>
+        <v>12985</v>
       </c>
       <c r="FK2">
-        <v>53035</v>
+        <v>13097</v>
       </c>
       <c r="FL2">
-        <v>56740</v>
+        <v>13221</v>
       </c>
       <c r="FM2">
-        <v>56794</v>
+        <v>13366</v>
       </c>
       <c r="FN2">
-        <v>56994</v>
+        <v>13517</v>
       </c>
       <c r="FO2">
-        <v>57131</v>
+        <v>13619</v>
       </c>
       <c r="FP2">
-        <v>57555</v>
+        <v>13767</v>
       </c>
       <c r="FQ2">
-        <v>57655</v>
+        <v>13891</v>
       </c>
       <c r="FR2">
-        <v>57755</v>
+        <v>14028</v>
       </c>
       <c r="FS2">
-        <v>57849</v>
+        <v>14183</v>
       </c>
       <c r="FT2">
-        <v>58144</v>
+        <v>14320</v>
       </c>
       <c r="FU2">
-        <v>58378</v>
+        <v>14513</v>
       </c>
       <c r="FV2">
-        <v>58407</v>
+        <v>14616</v>
       </c>
       <c r="FW2">
-        <v>58430</v>
+        <v>14742</v>
       </c>
       <c r="FX2">
-        <v>58525</v>
+        <v>14882</v>
       </c>
       <c r="FY2">
-        <v>58800</v>
+        <v>15096</v>
       </c>
       <c r="FZ2">
-        <v>58891</v>
+        <v>15341</v>
       </c>
       <c r="GA2">
-        <v>61122</v>
+        <v>15570</v>
       </c>
       <c r="GB2">
-        <v>61182</v>
+        <v>15806</v>
       </c>
       <c r="GC2">
-        <v>61324</v>
+        <v>16046</v>
       </c>
       <c r="GD2">
-        <v>61402</v>
+        <v>16271</v>
       </c>
       <c r="GE2">
-        <v>61692</v>
+        <v>16472</v>
       </c>
       <c r="GF2">
-        <v>61795</v>
+        <v>16674</v>
       </c>
       <c r="GG2">
-        <v>61861</v>
+        <v>17020</v>
       </c>
       <c r="GH2">
-        <v>61940</v>
+        <v>17370</v>
       </c>
       <c r="GI2">
-        <v>62273</v>
+        <v>17695</v>
       </c>
       <c r="GJ2">
-        <v>62477</v>
+        <v>17962</v>
       </c>
       <c r="GK2">
-        <v>62514</v>
+        <v>18218</v>
       </c>
       <c r="GL2">
-        <v>62536</v>
+        <v>18513</v>
       </c>
       <c r="GM2">
-        <v>62606</v>
+        <v>18846</v>
       </c>
       <c r="GN2">
-        <v>63046</v>
+        <v>19250</v>
       </c>
       <c r="GO2">
-        <v>63123</v>
+        <v>19672</v>
       </c>
       <c r="GP2">
-        <v>65964</v>
+        <v>20076</v>
       </c>
       <c r="GQ2">
-        <v>66006</v>
+        <v>20423</v>
       </c>
       <c r="GR2">
-        <v>66533</v>
+        <v>20745</v>
       </c>
       <c r="GS2">
-        <v>66593</v>
+        <v>21114</v>
       </c>
       <c r="GT2">
-        <v>66714</v>
+        <v>21581</v>
       </c>
       <c r="GU2">
-        <v>66782</v>
+        <v>22118</v>
       </c>
       <c r="GV2">
-        <v>66870</v>
+        <v>22676</v>
       </c>
       <c r="GW2">
-        <v>67274</v>
+        <v>23177</v>
       </c>
       <c r="GX2">
-        <v>67427</v>
+        <v>23559</v>
       </c>
       <c r="GY2">
-        <v>67481</v>
+        <v>23854</v>
       </c>
       <c r="GZ2">
-        <v>67508</v>
+        <v>24250</v>
       </c>
       <c r="HA2">
-        <v>67583</v>
+        <v>24764</v>
       </c>
       <c r="HB2">
-        <v>68403</v>
+        <v>25213</v>
       </c>
       <c r="HC2">
-        <v>68473</v>
+        <v>25660</v>
       </c>
       <c r="HD2">
-        <v>69468</v>
+        <v>26220</v>
       </c>
       <c r="HE2">
-        <v>69515</v>
+        <v>26559</v>
       </c>
       <c r="HF2">
-        <v>69880</v>
+        <v>26836</v>
       </c>
       <c r="HG2">
-        <v>69993</v>
+        <v>27181</v>
       </c>
       <c r="HH2">
-        <v>70165</v>
+        <v>27540</v>
       </c>
       <c r="HI2">
-        <v>70217</v>
+        <v>27944</v>
       </c>
       <c r="HJ2">
-        <v>70329</v>
+        <v>28266</v>
       </c>
       <c r="HK2">
-        <v>70751</v>
+        <v>28628</v>
       </c>
       <c r="HL2">
-        <v>70848</v>
+        <v>28848</v>
       </c>
       <c r="HM2">
-        <v>70892</v>
+        <v>29018</v>
       </c>
       <c r="HN2">
-        <v>70907</v>
+        <v>29245</v>
       </c>
       <c r="HO2">
-        <v>70990</v>
+        <v>29472</v>
       </c>
       <c r="HP2">
-        <v>72048</v>
+        <v>29716</v>
       </c>
       <c r="HQ2">
-        <v>72086</v>
+        <v>29950</v>
       </c>
       <c r="HR2">
-        <v>72695</v>
+        <v>30154</v>
       </c>
       <c r="HS2">
-        <v>72766</v>
+        <v>30307</v>
       </c>
       <c r="HT2">
-        <v>73184</v>
+        <v>30404</v>
       </c>
       <c r="HU2">
-        <v>73301</v>
+        <v>30549</v>
       </c>
       <c r="HV2">
-        <v>73395</v>
+        <v>30686</v>
       </c>
       <c r="HW2">
-        <v>73467</v>
+        <v>30813</v>
       </c>
       <c r="HX2">
-        <v>73591</v>
+        <v>30954</v>
       </c>
       <c r="HY2">
-        <v>73995</v>
+        <v>31117</v>
       </c>
       <c r="HZ2">
-        <v>74140</v>
+        <v>31203</v>
       </c>
       <c r="IA2">
-        <v>74182</v>
+        <v>31300</v>
       </c>
       <c r="IB2">
-        <v>74202</v>
+        <v>31403</v>
       </c>
       <c r="IC2">
-        <v>74321</v>
+        <v>31541</v>
       </c>
       <c r="ID2">
-        <v>75486</v>
+        <v>31635</v>
       </c>
       <c r="IE2">
-        <v>75518</v>
+        <v>31736</v>
       </c>
       <c r="IF2">
-        <v>78253</v>
+        <v>31838</v>
       </c>
       <c r="IG2">
-        <v>78316</v>
+        <v>31923</v>
       </c>
       <c r="IH2">
-        <v>78814</v>
+        <v>31991</v>
       </c>
       <c r="II2">
-        <v>78908</v>
+        <v>32054</v>
       </c>
       <c r="IJ2">
-        <v>78986</v>
+        <v>32119</v>
       </c>
       <c r="IK2">
-        <v>79048</v>
+        <v>32214</v>
       </c>
       <c r="IL2">
-        <v>79193</v>
+        <v>32298</v>
       </c>
       <c r="IM2">
-        <v>79540</v>
+        <v>32352</v>
       </c>
       <c r="IN2">
-        <v>79677</v>
+        <v>32387</v>
       </c>
       <c r="IO2">
-        <v>79716</v>
+        <v>32419</v>
       </c>
       <c r="IP2">
-        <v>79729</v>
+        <v>32470</v>
       </c>
       <c r="IQ2">
-        <v>79834</v>
+        <v>32525</v>
       </c>
       <c r="IR2">
-        <v>81091</v>
+        <v>32584</v>
       </c>
       <c r="IS2">
-        <v>81137</v>
+        <v>32630</v>
       </c>
       <c r="IT2">
-        <v>83377</v>
+        <v>32674</v>
       </c>
       <c r="IU2">
-        <v>83447</v>
+        <v>32697</v>
       </c>
       <c r="IV2">
-        <v>84028</v>
+        <v>32726</v>
       </c>
       <c r="IW2">
-        <v>84132</v>
+        <v>32763</v>
       </c>
       <c r="IX2">
-        <v>84239</v>
+        <v>32817</v>
       </c>
       <c r="IY2">
-        <v>84285</v>
+        <v>32861</v>
       </c>
       <c r="IZ2">
-        <v>84436</v>
+        <v>32903</v>
       </c>
       <c r="JA2">
-        <v>84758</v>
+        <v>32942</v>
       </c>
       <c r="JB2">
-        <v>84885</v>
+        <v>32964</v>
       </c>
       <c r="JC2">
-        <v>84907</v>
+        <v>32983</v>
       </c>
       <c r="JD2">
-        <v>84943</v>
+        <v>33019</v>
       </c>
       <c r="JE2">
-        <v>85093</v>
+        <v>33060</v>
       </c>
       <c r="JF2">
-        <v>86014</v>
+        <v>33090</v>
       </c>
       <c r="JG2">
-        <v>86079</v>
+        <v>33116</v>
       </c>
       <c r="JH2">
-        <v>87308</v>
+        <v>33168</v>
       </c>
       <c r="JI2">
-        <v>87379</v>
+        <v>33208</v>
       </c>
       <c r="JJ2">
-        <v>87588</v>
+        <v>33230</v>
       </c>
       <c r="JK2">
-        <v>87699</v>
+        <v>33279</v>
       </c>
       <c r="JL2">
-        <v>87801</v>
+        <v>33310</v>
       </c>
       <c r="JM2">
-        <v>87910</v>
+        <v>33364</v>
       </c>
       <c r="JN2">
-        <v>88012</v>
+        <v>33403</v>
       </c>
       <c r="JO2">
-        <v>88381</v>
+        <v>33442</v>
       </c>
       <c r="JP2">
-        <v>88522</v>
+        <v>33466</v>
       </c>
       <c r="JQ2">
-        <v>88541</v>
+        <v>33481</v>
       </c>
       <c r="JR2">
-        <v>88578</v>
+        <v>33502</v>
       </c>
       <c r="JS2">
-        <v>88702</v>
+        <v>33527</v>
       </c>
       <c r="JT2">
-        <v>89445</v>
+        <v>33549</v>
       </c>
       <c r="JU2">
-        <v>89504</v>
+        <v>33587</v>
       </c>
       <c r="JV2">
-        <v>90659</v>
+        <v>33631</v>
       </c>
       <c r="JW2">
-        <v>90720</v>
+        <v>33648</v>
       </c>
       <c r="JX2">
-        <v>90875</v>
+        <v>33665</v>
       </c>
       <c r="JY2">
-        <v>90967</v>
+        <v>33694</v>
       </c>
       <c r="JZ2">
-        <v>91073</v>
+        <v>33717</v>
       </c>
       <c r="KA2">
-        <v>91165</v>
+        <v>33739</v>
       </c>
       <c r="KB2">
-        <v>91313</v>
+        <v>33766</v>
       </c>
       <c r="KC2">
-        <v>91780</v>
+        <v>33781</v>
       </c>
       <c r="KD2">
-        <v>91943</v>
+        <v>33801</v>
       </c>
       <c r="KE2">
-        <v>91979</v>
+        <v>33814</v>
       </c>
       <c r="KF2">
-        <v>92012</v>
+        <v>33850</v>
       </c>
       <c r="KG2">
-        <v>92118</v>
+        <v>33887</v>
       </c>
       <c r="KH2">
-        <v>93638</v>
+        <v>33920</v>
       </c>
       <c r="KI2">
-        <v>93711</v>
+        <v>33962</v>
       </c>
       <c r="KJ2">
-        <v>94773</v>
+        <v>34018</v>
       </c>
       <c r="KK2">
-        <v>94827</v>
+        <v>34043</v>
       </c>
       <c r="KL2">
-        <v>95743</v>
+        <v>34084</v>
       </c>
       <c r="KM2">
-        <v>95814</v>
+        <v>34120</v>
       </c>
       <c r="KN2">
-        <v>95970</v>
+        <v>34149</v>
       </c>
       <c r="KO2">
-        <v>96054</v>
+        <v>34222</v>
       </c>
       <c r="KP2">
-        <v>96178</v>
+        <v>34258</v>
       </c>
       <c r="KQ2">
-        <v>96715</v>
+        <v>34302</v>
       </c>
       <c r="KR2">
-        <v>96801</v>
+        <v>34335</v>
       </c>
       <c r="KS2">
-        <v>96842</v>
+        <v>34360</v>
       </c>
       <c r="KT2">
-        <v>96884</v>
+        <v>34387</v>
       </c>
       <c r="KU2">
-        <v>96959</v>
+        <v>34433</v>
       </c>
       <c r="KV2">
-        <v>98785</v>
+        <v>34481</v>
       </c>
       <c r="KW2">
-        <v>98871</v>
+        <v>34538</v>
       </c>
       <c r="KX2">
-        <v>99395</v>
+        <v>34590</v>
       </c>
       <c r="KY2">
-        <v>99470</v>
+        <v>34647</v>
       </c>
       <c r="KZ2">
-        <v>100340</v>
+        <v>34685</v>
       </c>
       <c r="LA2">
-        <v>100449</v>
+        <v>34760</v>
       </c>
       <c r="LB2">
-        <v>100548</v>
+        <v>34842</v>
       </c>
       <c r="LC2">
-        <v>100588</v>
+        <v>34927</v>
       </c>
       <c r="LD2">
-        <v>100725</v>
+        <v>35048</v>
       </c>
       <c r="LE2">
-        <v>101283</v>
+        <v>35143</v>
       </c>
       <c r="LF2">
-        <v>101380</v>
+        <v>35213</v>
       </c>
       <c r="LG2">
-        <v>101410</v>
+        <v>35288</v>
       </c>
       <c r="LH2">
-        <v>101466</v>
+        <v>35371</v>
       </c>
       <c r="LI2">
-        <v>101587</v>
+        <v>35490</v>
       </c>
       <c r="LJ2">
-        <v>103611</v>
+        <v>35595</v>
       </c>
       <c r="LK2">
-        <v>103677</v>
+        <v>35745</v>
       </c>
       <c r="LL2">
-        <v>103958</v>
+        <v>35869</v>
       </c>
       <c r="LM2">
-        <v>104041</v>
+        <v>35975</v>
       </c>
       <c r="LN2">
-        <v>104869</v>
+        <v>36050</v>
       </c>
       <c r="LO2">
-        <v>104993</v>
+        <v>36171</v>
       </c>
       <c r="LP2">
-        <v>105108</v>
+        <v>36287</v>
       </c>
       <c r="LQ2">
-        <v>105161</v>
+        <v>36441</v>
       </c>
       <c r="LR2">
-        <v>105316</v>
+        <v>36600</v>
       </c>
       <c r="LS2">
-        <v>105817</v>
+        <v>36721</v>
       </c>
       <c r="LT2">
-        <v>105920</v>
+        <v>36876</v>
       </c>
       <c r="LU2">
-        <v>105946</v>
+        <v>37000</v>
       </c>
       <c r="LV2">
-        <v>105971</v>
+        <v>37134</v>
       </c>
       <c r="LW2">
-        <v>106087</v>
+        <v>37278</v>
       </c>
       <c r="LX2">
-        <v>108239</v>
+        <v>37485</v>
       </c>
       <c r="LY2">
-        <v>108263</v>
+        <v>37707</v>
       </c>
       <c r="LZ2">
-        <v>109409</v>
+        <v>37856</v>
       </c>
       <c r="MA2">
-        <v>109471</v>
+        <v>37960</v>
       </c>
       <c r="MB2">
-        <v>110294</v>
+        <v>38079</v>
       </c>
       <c r="MC2">
-        <v>110419</v>
+        <v>38195</v>
       </c>
       <c r="MD2">
-        <v>110497</v>
+        <v>38337</v>
       </c>
       <c r="ME2">
-        <v>110549</v>
+        <v>38530</v>
       </c>
       <c r="MF2">
-        <v>110686</v>
+        <v>38741</v>
       </c>
       <c r="MG2">
-        <v>111068</v>
+        <v>39033</v>
       </c>
       <c r="MH2">
-        <v>111206</v>
+        <v>39316</v>
       </c>
       <c r="MI2">
-        <v>111258</v>
+        <v>39591</v>
       </c>
       <c r="MJ2">
-        <v>111299</v>
+        <v>40031</v>
       </c>
       <c r="MK2">
-        <v>111453</v>
+        <v>40851</v>
       </c>
       <c r="ML2">
-        <v>113116</v>
+        <v>41909</v>
       </c>
       <c r="MM2">
-        <v>113185</v>
+        <v>43074</v>
       </c>
       <c r="MN2">
-        <v>114237</v>
+        <v>44331</v>
       </c>
       <c r="MO2">
-        <v>114327</v>
+        <v>45252</v>
       </c>
       <c r="MP2">
-        <v>115066</v>
+        <v>45995</v>
       </c>
       <c r="MQ2">
-        <v>115147</v>
+        <v>47515</v>
       </c>
       <c r="MR2">
-        <v>115192</v>
+        <v>49341</v>
       </c>
       <c r="MS2">
-        <v>115237</v>
+        <v>51365</v>
       </c>
       <c r="MT2">
-        <v>115430</v>
+        <v>53517</v>
       </c>
       <c r="MU2">
-        <v>115725</v>
+        <v>55180</v>
       </c>
       <c r="MV2">
-        <v>115819</v>
+        <v>56075</v>
       </c>
       <c r="MW2">
-        <v>115859</v>
+        <v>57016</v>
       </c>
       <c r="MX2">
-        <v>115895</v>
+        <v>59601</v>
       </c>
       <c r="MY2">
-        <v>116054</v>
+        <v>62708</v>
       </c>
       <c r="MZ2">
-        <v>116949</v>
+        <v>65780</v>
       </c>
       <c r="NA2">
-        <v>117023</v>
+        <v>68508</v>
       </c>
       <c r="NB2">
-        <v>117800</v>
+        <v>70348</v>
       </c>
       <c r="NC2">
-        <v>117878</v>
+        <v>71108</v>
       </c>
       <c r="ND2">
-        <v>118230</v>
+        <v>72064</v>
       </c>
       <c r="NE2">
-        <v>118320</v>
+        <v>74714</v>
       </c>
       <c r="NF2">
-        <v>118434</v>
+        <v>77683</v>
       </c>
       <c r="NG2">
-        <v>118516</v>
+        <v>80571</v>
       </c>
       <c r="NH2">
-        <v>118619</v>
+        <v>81549</v>
       </c>
       <c r="NI2">
-        <v>119015</v>
+        <v>84671</v>
       </c>
       <c r="NJ2">
-        <v>119116</v>
+        <v>86227</v>
       </c>
       <c r="NK2">
-        <v>119138</v>
+        <v>87293</v>
       </c>
       <c r="NL2">
-        <v>119167</v>
+        <v>91326</v>
       </c>
       <c r="NM2">
-        <v>119288</v>
+        <v>95078</v>
       </c>
       <c r="NN2">
-        <v>120229</v>
+        <v>98783</v>
       </c>
       <c r="NO2">
-        <v>120274</v>
+        <v>101014</v>
       </c>
       <c r="NP2">
-        <v>120887</v>
+        <v>103855</v>
       </c>
       <c r="NQ2">
-        <v>120954</v>
+        <v>104850</v>
       </c>
       <c r="NR2">
-        <v>121285</v>
+        <v>105459</v>
       </c>
       <c r="NS2">
-        <v>121342</v>
+        <v>108194</v>
       </c>
       <c r="NT2">
-        <v>121406</v>
+        <v>110434</v>
       </c>
       <c r="NU2">
-        <v>121474</v>
+        <v>111663</v>
       </c>
       <c r="NV2">
-        <v>121600</v>
+        <v>112818</v>
       </c>
       <c r="NW2">
-        <v>122114</v>
+        <v>113880</v>
       </c>
       <c r="NX2">
-        <v>122216</v>
+        <v>114404</v>
       </c>
       <c r="NY2">
-        <v>122265</v>
+        <v>114685</v>
       </c>
       <c r="NZ2">
-        <v>122338</v>
+        <v>115831</v>
       </c>
       <c r="OA2">
-        <v>122493</v>
+        <v>116883</v>
       </c>
       <c r="OB2">
-        <v>125078</v>
+        <v>117660</v>
       </c>
       <c r="OC2">
-        <v>125137</v>
+        <v>118273</v>
       </c>
       <c r="OD2">
-        <v>125798</v>
+        <v>118934</v>
       </c>
       <c r="OE2">
-        <v>125843</v>
+        <v>119336</v>
       </c>
       <c r="OF2">
-        <v>126672</v>
+        <v>119535</v>
       </c>
       <c r="OG2">
-        <v>126704</v>
+        <v>120166</v>
       </c>
       <c r="OH2">
-        <v>126807</v>
+        <v>120675</v>
       </c>
       <c r="OI2">
-        <v>126869</v>
+        <v>121024</v>
       </c>
       <c r="OJ2">
-        <v>127009</v>
+        <v>121591</v>
       </c>
       <c r="OK2">
-        <v>127458</v>
+        <v>122047</v>
       </c>
       <c r="OL2">
-        <v>127543</v>
+        <v>122310</v>
       </c>
       <c r="OM2">
-        <v>127574</v>
+        <v>122454</v>
       </c>
       <c r="ON2">
-        <v>127610</v>
+        <v>122987</v>
       </c>
       <c r="OO2">
-        <v>127734</v>
+        <v>123369</v>
       </c>
       <c r="OP2">
-        <v>130841</v>
+        <v>123833</v>
       </c>
       <c r="OQ2">
-        <v>130914</v>
+        <v>124218</v>
       </c>
       <c r="OR2">
-        <v>131316</v>
+        <v>124590</v>
       </c>
       <c r="OS2">
-        <v>131403</v>
+        <v>124790</v>
       </c>
       <c r="OT2">
-        <v>131488</v>
+        <v>124932</v>
       </c>
       <c r="OU2">
-        <v>131532</v>
+        <v>125459</v>
       </c>
       <c r="OV2">
-        <v>131746</v>
+        <v>125824</v>
       </c>
       <c r="OW2">
-        <v>132193</v>
+        <v>126242</v>
       </c>
       <c r="OX2">
-        <v>132261</v>
+        <v>126740</v>
       </c>
       <c r="OY2">
-        <v>132315</v>
+        <v>127321</v>
       </c>
       <c r="OZ2">
-        <v>132359</v>
+        <v>127530</v>
       </c>
       <c r="PA2">
-        <v>132493</v>
+        <v>127685</v>
       </c>
       <c r="PB2">
-        <v>135565</v>
+        <v>128601</v>
       </c>
       <c r="PC2">
-        <v>135594</v>
+        <v>129471</v>
       </c>
       <c r="PD2">
-        <v>135793</v>
+        <v>130299</v>
       </c>
       <c r="PE2">
-        <v>135911</v>
+        <v>131122</v>
       </c>
       <c r="PF2">
-        <v>136005</v>
+        <v>131861</v>
       </c>
       <c r="PG2">
-        <v>136059</v>
+        <v>132213</v>
       </c>
       <c r="PH2">
-        <v>136304</v>
+        <v>132544</v>
       </c>
       <c r="PI2">
-        <v>136864</v>
+        <v>133373</v>
       </c>
       <c r="PJ2">
-        <v>136927</v>
+        <v>133700</v>
       </c>
       <c r="PK2">
-        <v>136966</v>
+        <v>134679</v>
       </c>
       <c r="PL2">
-        <v>136999</v>
+        <v>135669</v>
       </c>
       <c r="PM2">
-        <v>137143</v>
+        <v>136634</v>
       </c>
       <c r="PN2">
-        <v>139871</v>
+        <v>136978</v>
       </c>
       <c r="PO2">
-        <v>139891</v>
+        <v>137276</v>
       </c>
       <c r="PP2">
-        <v>140522</v>
+        <v>138239</v>
       </c>
       <c r="PQ2">
-        <v>140632</v>
+        <v>139292</v>
       </c>
       <c r="PR2">
-        <v>140680</v>
+        <v>140324</v>
       </c>
       <c r="PS2">
-        <v>141019</v>
+        <v>141252</v>
       </c>
       <c r="PT2">
-        <v>141084</v>
+        <v>142235</v>
       </c>
       <c r="PU2">
-        <v>141109</v>
+        <v>142659</v>
       </c>
       <c r="PV2">
         <v>142949</v>
@@ -4337,1309 +4337,1309 @@
         <v>77</v>
       </c>
       <c r="C3">
-        <v>1178</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>1367</v>
+        <v>291</v>
       </c>
       <c r="E3">
-        <v>2128</v>
+        <v>388</v>
       </c>
       <c r="F3">
-        <v>2220</v>
+        <v>534</v>
       </c>
       <c r="G3">
-        <v>2737</v>
+        <v>678</v>
       </c>
       <c r="H3">
-        <v>2884</v>
+        <v>829</v>
       </c>
       <c r="I3">
-        <v>2932</v>
+        <v>1031</v>
       </c>
       <c r="J3">
-        <v>2975</v>
+        <v>1232</v>
       </c>
       <c r="K3">
-        <v>3087</v>
+        <v>1397</v>
       </c>
       <c r="L3">
-        <v>3344</v>
+        <v>1590</v>
       </c>
       <c r="M3">
-        <v>3426</v>
+        <v>1877</v>
       </c>
       <c r="N3">
-        <v>3459</v>
+        <v>2135</v>
       </c>
       <c r="O3">
+        <v>2432</v>
+      </c>
+      <c r="P3">
+        <v>2632</v>
+      </c>
+      <c r="Q3">
+        <v>2853</v>
+      </c>
+      <c r="R3">
+        <v>2994</v>
+      </c>
+      <c r="S3">
+        <v>3254</v>
+      </c>
+      <c r="T3">
         <v>3498</v>
       </c>
-      <c r="P3">
+      <c r="U3">
         <v>3766</v>
       </c>
-      <c r="Q3">
-        <v>3865</v>
-      </c>
-      <c r="R3">
-        <v>5161</v>
-      </c>
-      <c r="S3">
-        <v>5338</v>
-      </c>
-      <c r="T3">
-        <v>5949</v>
-      </c>
-      <c r="U3">
-        <v>6044</v>
-      </c>
       <c r="V3">
-        <v>6981</v>
+        <v>4022</v>
       </c>
       <c r="W3">
-        <v>7054</v>
+        <v>4239</v>
       </c>
       <c r="X3">
-        <v>7111</v>
+        <v>4466</v>
       </c>
       <c r="Y3">
-        <v>7170</v>
+        <v>4666</v>
       </c>
       <c r="Z3">
-        <v>7271</v>
+        <v>4822</v>
       </c>
       <c r="AA3">
-        <v>7585</v>
+        <v>5077</v>
       </c>
       <c r="AB3">
-        <v>7658</v>
+        <v>5365</v>
       </c>
       <c r="AC3">
-        <v>7690</v>
+        <v>5648</v>
       </c>
       <c r="AD3">
-        <v>7733</v>
+        <v>5895</v>
       </c>
       <c r="AE3">
-        <v>7988</v>
+        <v>6114</v>
       </c>
       <c r="AF3">
-        <v>8103</v>
+        <v>6250</v>
       </c>
       <c r="AG3">
-        <v>10521</v>
+        <v>6439</v>
       </c>
       <c r="AH3">
-        <v>10685</v>
+        <v>6616</v>
       </c>
       <c r="AI3">
-        <v>11314</v>
+        <v>6780</v>
       </c>
       <c r="AJ3">
-        <v>11402</v>
+        <v>6935</v>
       </c>
       <c r="AK3">
-        <v>12337</v>
+        <v>7104</v>
       </c>
       <c r="AL3">
-        <v>12401</v>
+        <v>7267</v>
       </c>
       <c r="AM3">
-        <v>12460</v>
+        <v>7390</v>
       </c>
       <c r="AN3">
-        <v>12511</v>
+        <v>7508</v>
       </c>
       <c r="AO3">
-        <v>12578</v>
+        <v>7642</v>
       </c>
       <c r="AP3">
-        <v>12979</v>
+        <v>7782</v>
       </c>
       <c r="AQ3">
-        <v>13068</v>
+        <v>7970</v>
       </c>
       <c r="AR3">
-        <v>13101</v>
+        <v>8091</v>
       </c>
       <c r="AS3">
-        <v>13171</v>
+        <v>8196</v>
       </c>
       <c r="AT3">
-        <v>13440</v>
+        <v>8285</v>
       </c>
       <c r="AU3">
-        <v>13537</v>
+        <v>8359</v>
       </c>
       <c r="AV3">
-        <v>16125</v>
+        <v>8449</v>
       </c>
       <c r="AW3">
-        <v>16280</v>
+        <v>8532</v>
       </c>
       <c r="AX3">
-        <v>16924</v>
+        <v>8634</v>
       </c>
       <c r="AY3">
-        <v>17045</v>
+        <v>8693</v>
       </c>
       <c r="AZ3">
-        <v>17900</v>
+        <v>8816</v>
       </c>
       <c r="BA3">
-        <v>17998</v>
+        <v>8909</v>
       </c>
       <c r="BB3">
-        <v>18071</v>
+        <v>9020</v>
       </c>
       <c r="BC3">
-        <v>18118</v>
+        <v>9143</v>
       </c>
       <c r="BD3">
-        <v>18189</v>
+        <v>9256</v>
       </c>
       <c r="BE3">
-        <v>18560</v>
+        <v>9375</v>
       </c>
       <c r="BF3">
-        <v>18639</v>
+        <v>9469</v>
       </c>
       <c r="BG3">
-        <v>18668</v>
+        <v>9560</v>
       </c>
       <c r="BH3">
-        <v>18769</v>
+        <v>9618</v>
       </c>
       <c r="BI3">
-        <v>18999</v>
+        <v>9710</v>
       </c>
       <c r="BJ3">
-        <v>19145</v>
+        <v>9805</v>
       </c>
       <c r="BK3">
-        <v>21854</v>
+        <v>9893</v>
       </c>
       <c r="BL3">
-        <v>22023</v>
+        <v>10014</v>
       </c>
       <c r="BM3">
+        <v>10117</v>
+      </c>
+      <c r="BN3">
+        <v>10216</v>
+      </c>
+      <c r="BO3">
+        <v>10305</v>
+      </c>
+      <c r="BP3">
+        <v>10404</v>
+      </c>
+      <c r="BQ3">
+        <v>10504</v>
+      </c>
+      <c r="BR3">
+        <v>10606</v>
+      </c>
+      <c r="BS3">
+        <v>10719</v>
+      </c>
+      <c r="BT3">
+        <v>10831</v>
+      </c>
+      <c r="BU3">
+        <v>10920</v>
+      </c>
+      <c r="BV3">
+        <v>10985</v>
+      </c>
+      <c r="BW3">
+        <v>11113</v>
+      </c>
+      <c r="BX3">
+        <v>11235</v>
+      </c>
+      <c r="BY3">
+        <v>11369</v>
+      </c>
+      <c r="BZ3">
+        <v>11479</v>
+      </c>
+      <c r="CA3">
+        <v>11596</v>
+      </c>
+      <c r="CB3">
+        <v>11730</v>
+      </c>
+      <c r="CC3">
+        <v>11813</v>
+      </c>
+      <c r="CD3">
+        <v>11936</v>
+      </c>
+      <c r="CE3">
+        <v>12046</v>
+      </c>
+      <c r="CF3">
+        <v>12181</v>
+      </c>
+      <c r="CG3">
+        <v>12303</v>
+      </c>
+      <c r="CH3">
+        <v>12397</v>
+      </c>
+      <c r="CI3">
+        <v>12501</v>
+      </c>
+      <c r="CJ3">
+        <v>12574</v>
+      </c>
+      <c r="CK3">
+        <v>12685</v>
+      </c>
+      <c r="CL3">
+        <v>12804</v>
+      </c>
+      <c r="CM3">
+        <v>12939</v>
+      </c>
+      <c r="CN3">
+        <v>13086</v>
+      </c>
+      <c r="CO3">
+        <v>13159</v>
+      </c>
+      <c r="CP3">
+        <v>13223</v>
+      </c>
+      <c r="CQ3">
+        <v>13321</v>
+      </c>
+      <c r="CR3">
+        <v>13462</v>
+      </c>
+      <c r="CS3">
+        <v>13584</v>
+      </c>
+      <c r="CT3">
+        <v>13704</v>
+      </c>
+      <c r="CU3">
+        <v>13842</v>
+      </c>
+      <c r="CV3">
+        <v>13970</v>
+      </c>
+      <c r="CW3">
+        <v>14072</v>
+      </c>
+      <c r="CX3">
+        <v>14166</v>
+      </c>
+      <c r="CY3">
+        <v>14271</v>
+      </c>
+      <c r="CZ3">
+        <v>14364</v>
+      </c>
+      <c r="DA3">
+        <v>14453</v>
+      </c>
+      <c r="DB3">
+        <v>14562</v>
+      </c>
+      <c r="DC3">
+        <v>14669</v>
+      </c>
+      <c r="DD3">
+        <v>14765</v>
+      </c>
+      <c r="DE3">
+        <v>14839</v>
+      </c>
+      <c r="DF3">
+        <v>14893</v>
+      </c>
+      <c r="DG3">
+        <v>14980</v>
+      </c>
+      <c r="DH3">
+        <v>15049</v>
+      </c>
+      <c r="DI3">
+        <v>15115</v>
+      </c>
+      <c r="DJ3">
+        <v>15178</v>
+      </c>
+      <c r="DK3">
+        <v>15236</v>
+      </c>
+      <c r="DL3">
+        <v>15284</v>
+      </c>
+      <c r="DM3">
+        <v>15333</v>
+      </c>
+      <c r="DN3">
+        <v>15402</v>
+      </c>
+      <c r="DO3">
+        <v>15473</v>
+      </c>
+      <c r="DP3">
+        <v>15535</v>
+      </c>
+      <c r="DQ3">
+        <v>15584</v>
+      </c>
+      <c r="DR3">
+        <v>15632</v>
+      </c>
+      <c r="DS3">
+        <v>15689</v>
+      </c>
+      <c r="DT3">
+        <v>15748</v>
+      </c>
+      <c r="DU3">
+        <v>15821</v>
+      </c>
+      <c r="DV3">
+        <v>15876</v>
+      </c>
+      <c r="DW3">
+        <v>15939</v>
+      </c>
+      <c r="DX3">
+        <v>16011</v>
+      </c>
+      <c r="DY3">
+        <v>16050</v>
+      </c>
+      <c r="DZ3">
+        <v>16080</v>
+      </c>
+      <c r="EA3">
+        <v>16112</v>
+      </c>
+      <c r="EB3">
+        <v>16201</v>
+      </c>
+      <c r="EC3">
+        <v>16263</v>
+      </c>
+      <c r="ED3">
+        <v>16316</v>
+      </c>
+      <c r="EE3">
+        <v>16371</v>
+      </c>
+      <c r="EF3">
+        <v>16421</v>
+      </c>
+      <c r="EG3">
+        <v>16484</v>
+      </c>
+      <c r="EH3">
+        <v>16540</v>
+      </c>
+      <c r="EI3">
+        <v>16594</v>
+      </c>
+      <c r="EJ3">
+        <v>16669</v>
+      </c>
+      <c r="EK3">
+        <v>16734</v>
+      </c>
+      <c r="EL3">
+        <v>16785</v>
+      </c>
+      <c r="EM3">
+        <v>16823</v>
+      </c>
+      <c r="EN3">
+        <v>16867</v>
+      </c>
+      <c r="EO3">
+        <v>16915</v>
+      </c>
+      <c r="EP3">
+        <v>16977</v>
+      </c>
+      <c r="EQ3">
+        <v>17031</v>
+      </c>
+      <c r="ER3">
+        <v>17076</v>
+      </c>
+      <c r="ES3">
+        <v>17120</v>
+      </c>
+      <c r="ET3">
+        <v>17147</v>
+      </c>
+      <c r="EU3">
+        <v>17178</v>
+      </c>
+      <c r="EV3">
+        <v>17207</v>
+      </c>
+      <c r="EW3">
+        <v>17250</v>
+      </c>
+      <c r="EX3">
+        <v>17309</v>
+      </c>
+      <c r="EY3">
+        <v>17360</v>
+      </c>
+      <c r="EZ3">
+        <v>17407</v>
+      </c>
+      <c r="FA3">
+        <v>17444</v>
+      </c>
+      <c r="FB3">
+        <v>17477</v>
+      </c>
+      <c r="FC3">
+        <v>17540</v>
+      </c>
+      <c r="FD3">
+        <v>17587</v>
+      </c>
+      <c r="FE3">
+        <v>17651</v>
+      </c>
+      <c r="FF3">
+        <v>17703</v>
+      </c>
+      <c r="FG3">
+        <v>17749</v>
+      </c>
+      <c r="FH3">
+        <v>17778</v>
+      </c>
+      <c r="FI3">
+        <v>17815</v>
+      </c>
+      <c r="FJ3">
+        <v>17833</v>
+      </c>
+      <c r="FK3">
+        <v>17896</v>
+      </c>
+      <c r="FL3">
+        <v>17926</v>
+      </c>
+      <c r="FM3">
+        <v>17966</v>
+      </c>
+      <c r="FN3">
+        <v>18007</v>
+      </c>
+      <c r="FO3">
+        <v>18052</v>
+      </c>
+      <c r="FP3">
+        <v>18082</v>
+      </c>
+      <c r="FQ3">
+        <v>18114</v>
+      </c>
+      <c r="FR3">
+        <v>18156</v>
+      </c>
+      <c r="FS3">
+        <v>18213</v>
+      </c>
+      <c r="FT3">
+        <v>18256</v>
+      </c>
+      <c r="FU3">
+        <v>18303</v>
+      </c>
+      <c r="FV3">
+        <v>18340</v>
+      </c>
+      <c r="FW3">
+        <v>18360</v>
+      </c>
+      <c r="FX3">
+        <v>18424</v>
+      </c>
+      <c r="FY3">
+        <v>18513</v>
+      </c>
+      <c r="FZ3">
+        <v>18636</v>
+      </c>
+      <c r="GA3">
+        <v>18748</v>
+      </c>
+      <c r="GB3">
+        <v>18849</v>
+      </c>
+      <c r="GC3">
+        <v>18916</v>
+      </c>
+      <c r="GD3">
+        <v>18987</v>
+      </c>
+      <c r="GE3">
+        <v>19097</v>
+      </c>
+      <c r="GF3">
+        <v>19251</v>
+      </c>
+      <c r="GG3">
+        <v>19429</v>
+      </c>
+      <c r="GH3">
+        <v>19615</v>
+      </c>
+      <c r="GI3">
+        <v>19787</v>
+      </c>
+      <c r="GJ3">
+        <v>19991</v>
+      </c>
+      <c r="GK3">
+        <v>20145</v>
+      </c>
+      <c r="GL3">
+        <v>20371</v>
+      </c>
+      <c r="GM3">
+        <v>20657</v>
+      </c>
+      <c r="GN3">
+        <v>20958</v>
+      </c>
+      <c r="GO3">
+        <v>21294</v>
+      </c>
+      <c r="GP3">
+        <v>21578</v>
+      </c>
+      <c r="GQ3">
+        <v>21876</v>
+      </c>
+      <c r="GR3">
+        <v>22117</v>
+      </c>
+      <c r="GS3">
         <v>22390</v>
       </c>
-      <c r="BN3">
-        <v>22493</v>
-      </c>
-      <c r="BO3">
-        <v>22784</v>
-      </c>
-      <c r="BP3">
-        <v>22925</v>
-      </c>
-      <c r="BQ3">
-        <v>22980</v>
-      </c>
-      <c r="BR3">
-        <v>23017</v>
-      </c>
-      <c r="BS3">
-        <v>23127</v>
-      </c>
-      <c r="BT3">
-        <v>23453</v>
-      </c>
-      <c r="BU3">
-        <v>23497</v>
-      </c>
-      <c r="BV3">
-        <v>23530</v>
-      </c>
-      <c r="BW3">
-        <v>23596</v>
-      </c>
-      <c r="BX3">
-        <v>23774</v>
-      </c>
-      <c r="BY3">
-        <v>23918</v>
-      </c>
-      <c r="BZ3">
-        <v>25480</v>
-      </c>
-      <c r="CA3">
-        <v>25643</v>
-      </c>
-      <c r="CB3">
-        <v>25933</v>
-      </c>
-      <c r="CC3">
-        <v>26032</v>
-      </c>
-      <c r="CD3">
-        <v>26277</v>
-      </c>
-      <c r="CE3">
-        <v>26399</v>
-      </c>
-      <c r="CF3">
-        <v>26462</v>
-      </c>
-      <c r="CG3">
-        <v>26495</v>
-      </c>
-      <c r="CH3">
-        <v>26649</v>
-      </c>
-      <c r="CI3">
-        <v>26963</v>
-      </c>
-      <c r="CJ3">
-        <v>27011</v>
-      </c>
-      <c r="CK3">
-        <v>27051</v>
-      </c>
-      <c r="CL3">
-        <v>27106</v>
-      </c>
-      <c r="CM3">
-        <v>27313</v>
-      </c>
-      <c r="CN3">
-        <v>27464</v>
-      </c>
-      <c r="CO3">
-        <v>30215</v>
-      </c>
-      <c r="CP3">
-        <v>30338</v>
-      </c>
-      <c r="CQ3">
-        <v>30988</v>
-      </c>
-      <c r="CR3">
-        <v>31077</v>
-      </c>
-      <c r="CS3">
-        <v>31660</v>
-      </c>
-      <c r="CT3">
+      <c r="GT3">
+        <v>22757</v>
+      </c>
+      <c r="GU3">
+        <v>23132</v>
+      </c>
+      <c r="GV3">
+        <v>23544</v>
+      </c>
+      <c r="GW3">
+        <v>23900</v>
+      </c>
+      <c r="GX3">
+        <v>24271</v>
+      </c>
+      <c r="GY3">
+        <v>24520</v>
+      </c>
+      <c r="GZ3">
+        <v>24799</v>
+      </c>
+      <c r="HA3">
+        <v>25237</v>
+      </c>
+      <c r="HB3">
+        <v>25680</v>
+      </c>
+      <c r="HC3">
+        <v>26082</v>
+      </c>
+      <c r="HD3">
+        <v>26511</v>
+      </c>
+      <c r="HE3">
+        <v>26835</v>
+      </c>
+      <c r="HF3">
+        <v>27092</v>
+      </c>
+      <c r="HG3">
+        <v>27406</v>
+      </c>
+      <c r="HH3">
+        <v>27807</v>
+      </c>
+      <c r="HI3">
+        <v>28178</v>
+      </c>
+      <c r="HJ3">
+        <v>28504</v>
+      </c>
+      <c r="HK3">
+        <v>28818</v>
+      </c>
+      <c r="HL3">
+        <v>29103</v>
+      </c>
+      <c r="HM3">
+        <v>29277</v>
+      </c>
+      <c r="HN3">
+        <v>29464</v>
+      </c>
+      <c r="HO3">
+        <v>29780</v>
+      </c>
+      <c r="HP3">
+        <v>30035</v>
+      </c>
+      <c r="HQ3">
+        <v>30261</v>
+      </c>
+      <c r="HR3">
+        <v>30441</v>
+      </c>
+      <c r="HS3">
+        <v>30610</v>
+      </c>
+      <c r="HT3">
+        <v>30762</v>
+      </c>
+      <c r="HU3">
+        <v>30897</v>
+      </c>
+      <c r="HV3">
+        <v>31068</v>
+      </c>
+      <c r="HW3">
+        <v>31268</v>
+      </c>
+      <c r="HX3">
+        <v>31416</v>
+      </c>
+      <c r="HY3">
+        <v>31579</v>
+      </c>
+      <c r="HZ3">
+        <v>31700</v>
+      </c>
+      <c r="IA3">
         <v>31780</v>
       </c>
-      <c r="CU3">
-        <v>31852</v>
-      </c>
-      <c r="CV3">
-        <v>31915</v>
-      </c>
-      <c r="CW3">
-        <v>32093</v>
-      </c>
-      <c r="CX3">
-        <v>32378</v>
-      </c>
-      <c r="CY3">
-        <v>32449</v>
-      </c>
-      <c r="CZ3">
-        <v>32470</v>
-      </c>
-      <c r="DA3">
-        <v>32518</v>
-      </c>
-      <c r="DB3">
+      <c r="IB3">
+        <v>31892</v>
+      </c>
+      <c r="IC3">
+        <v>32012</v>
+      </c>
+      <c r="ID3">
+        <v>32135</v>
+      </c>
+      <c r="IE3">
+        <v>32242</v>
+      </c>
+      <c r="IF3">
+        <v>32355</v>
+      </c>
+      <c r="IG3">
+        <v>32429</v>
+      </c>
+      <c r="IH3">
+        <v>32479</v>
+      </c>
+      <c r="II3">
+        <v>32555</v>
+      </c>
+      <c r="IJ3">
+        <v>32647</v>
+      </c>
+      <c r="IK3">
         <v>32729</v>
       </c>
-      <c r="DC3">
-        <v>32931</v>
-      </c>
-      <c r="DD3">
-        <v>34744</v>
-      </c>
-      <c r="DE3">
-        <v>34862</v>
-      </c>
-      <c r="DF3">
-        <v>35394</v>
-      </c>
-      <c r="DG3">
-        <v>35493</v>
-      </c>
-      <c r="DH3">
-        <v>36092</v>
-      </c>
-      <c r="DI3">
+      <c r="IL3">
+        <v>32802</v>
+      </c>
+      <c r="IM3">
+        <v>32891</v>
+      </c>
+      <c r="IN3">
+        <v>32970</v>
+      </c>
+      <c r="IO3">
+        <v>33014</v>
+      </c>
+      <c r="IP3">
+        <v>33062</v>
+      </c>
+      <c r="IQ3">
+        <v>33133</v>
+      </c>
+      <c r="IR3">
+        <v>33216</v>
+      </c>
+      <c r="IS3">
+        <v>33278</v>
+      </c>
+      <c r="IT3">
+        <v>33359</v>
+      </c>
+      <c r="IU3">
+        <v>33424</v>
+      </c>
+      <c r="IV3">
+        <v>33470</v>
+      </c>
+      <c r="IW3">
+        <v>33538</v>
+      </c>
+      <c r="IX3">
+        <v>33611</v>
+      </c>
+      <c r="IY3">
+        <v>33662</v>
+      </c>
+      <c r="IZ3">
+        <v>33737</v>
+      </c>
+      <c r="JA3">
+        <v>33798</v>
+      </c>
+      <c r="JB3">
+        <v>33850</v>
+      </c>
+      <c r="JC3">
+        <v>33893</v>
+      </c>
+      <c r="JD3">
+        <v>33944</v>
+      </c>
+      <c r="JE3">
+        <v>34003</v>
+      </c>
+      <c r="JF3">
+        <v>34047</v>
+      </c>
+      <c r="JG3">
+        <v>34092</v>
+      </c>
+      <c r="JH3">
+        <v>34141</v>
+      </c>
+      <c r="JI3">
+        <v>34184</v>
+      </c>
+      <c r="JJ3">
+        <v>34215</v>
+      </c>
+      <c r="JK3">
+        <v>34272</v>
+      </c>
+      <c r="JL3">
+        <v>34328</v>
+      </c>
+      <c r="JM3">
+        <v>34374</v>
+      </c>
+      <c r="JN3">
+        <v>34399</v>
+      </c>
+      <c r="JO3">
+        <v>34432</v>
+      </c>
+      <c r="JP3">
+        <v>34464</v>
+      </c>
+      <c r="JQ3">
+        <v>34497</v>
+      </c>
+      <c r="JR3">
+        <v>34526</v>
+      </c>
+      <c r="JS3">
+        <v>34559</v>
+      </c>
+      <c r="JT3">
+        <v>34599</v>
+      </c>
+      <c r="JU3">
+        <v>34620</v>
+      </c>
+      <c r="JV3">
+        <v>34647</v>
+      </c>
+      <c r="JW3">
+        <v>34671</v>
+      </c>
+      <c r="JX3">
+        <v>34695</v>
+      </c>
+      <c r="JY3">
+        <v>34725</v>
+      </c>
+      <c r="JZ3">
+        <v>34752</v>
+      </c>
+      <c r="KA3">
+        <v>34775</v>
+      </c>
+      <c r="KB3">
+        <v>34799</v>
+      </c>
+      <c r="KC3">
+        <v>34833</v>
+      </c>
+      <c r="KD3">
+        <v>34872</v>
+      </c>
+      <c r="KE3">
+        <v>34912</v>
+      </c>
+      <c r="KF3">
+        <v>34945</v>
+      </c>
+      <c r="KG3">
+        <v>34994</v>
+      </c>
+      <c r="KH3">
+        <v>35048</v>
+      </c>
+      <c r="KI3">
+        <v>35089</v>
+      </c>
+      <c r="KJ3">
+        <v>35132</v>
+      </c>
+      <c r="KK3">
+        <v>35176</v>
+      </c>
+      <c r="KL3">
+        <v>35219</v>
+      </c>
+      <c r="KM3">
+        <v>35268</v>
+      </c>
+      <c r="KN3">
+        <v>35329</v>
+      </c>
+      <c r="KO3">
+        <v>35377</v>
+      </c>
+      <c r="KP3">
+        <v>35427</v>
+      </c>
+      <c r="KQ3">
+        <v>35466</v>
+      </c>
+      <c r="KR3">
+        <v>35509</v>
+      </c>
+      <c r="KS3">
+        <v>35540</v>
+      </c>
+      <c r="KT3">
+        <v>35579</v>
+      </c>
+      <c r="KU3">
+        <v>35622</v>
+      </c>
+      <c r="KV3">
+        <v>35692</v>
+      </c>
+      <c r="KW3">
+        <v>35793</v>
+      </c>
+      <c r="KX3">
+        <v>35859</v>
+      </c>
+      <c r="KY3">
+        <v>35914</v>
+      </c>
+      <c r="KZ3">
+        <v>35962</v>
+      </c>
+      <c r="LA3">
+        <v>36051</v>
+      </c>
+      <c r="LB3">
+        <v>36145</v>
+      </c>
+      <c r="LC3">
         <v>36230</v>
       </c>
-      <c r="DJ3">
-        <v>36269</v>
-      </c>
-      <c r="DK3">
-        <v>36316</v>
-      </c>
-      <c r="DL3">
-        <v>36502</v>
-      </c>
-      <c r="DM3">
-        <v>36676</v>
-      </c>
-      <c r="DN3">
-        <v>36759</v>
-      </c>
-      <c r="DO3">
-        <v>36786</v>
-      </c>
-      <c r="DP3">
-        <v>36875</v>
-      </c>
-      <c r="DQ3">
-        <v>37100</v>
-      </c>
-      <c r="DR3">
-        <v>37301</v>
-      </c>
-      <c r="DS3">
-        <v>39122</v>
-      </c>
-      <c r="DT3">
-        <v>39256</v>
-      </c>
-      <c r="DU3">
-        <v>39802</v>
-      </c>
-      <c r="DV3">
-        <v>39902</v>
-      </c>
-      <c r="DW3">
-        <v>40402</v>
-      </c>
-      <c r="DX3">
-        <v>40530</v>
-      </c>
-      <c r="DY3">
-        <v>40560</v>
-      </c>
-      <c r="DZ3">
-        <v>40624</v>
-      </c>
-      <c r="EA3">
-        <v>40796</v>
-      </c>
-      <c r="EB3">
-        <v>40983</v>
-      </c>
-      <c r="EC3">
-        <v>41045</v>
-      </c>
-      <c r="ED3">
-        <v>41069</v>
-      </c>
-      <c r="EE3">
-        <v>41163</v>
-      </c>
-      <c r="EF3">
-        <v>41437</v>
-      </c>
-      <c r="EG3">
-        <v>41602</v>
-      </c>
-      <c r="EH3">
-        <v>44671</v>
-      </c>
-      <c r="EI3">
-        <v>44811</v>
-      </c>
-      <c r="EJ3">
-        <v>45273</v>
-      </c>
-      <c r="EK3">
-        <v>45375</v>
-      </c>
-      <c r="EL3">
-        <v>45901</v>
-      </c>
-      <c r="EM3">
-        <v>46003</v>
-      </c>
-      <c r="EN3">
-        <v>46035</v>
-      </c>
-      <c r="EO3">
-        <v>46087</v>
-      </c>
-      <c r="EP3">
-        <v>46291</v>
-      </c>
-      <c r="EQ3">
-        <v>46607</v>
-      </c>
-      <c r="ER3">
-        <v>46688</v>
-      </c>
-      <c r="ES3">
-        <v>46712</v>
-      </c>
-      <c r="ET3">
-        <v>46797</v>
-      </c>
-      <c r="EU3">
-        <v>47160</v>
-      </c>
-      <c r="EV3">
-        <v>47353</v>
-      </c>
-      <c r="EW3">
-        <v>50394</v>
-      </c>
-      <c r="EX3">
-        <v>50582</v>
-      </c>
-      <c r="EY3">
-        <v>51038</v>
-      </c>
-      <c r="EZ3">
-        <v>51151</v>
-      </c>
-      <c r="FA3">
-        <v>51638</v>
-      </c>
-      <c r="FB3">
-        <v>51732</v>
-      </c>
-      <c r="FC3">
-        <v>51821</v>
-      </c>
-      <c r="FD3">
-        <v>51867</v>
-      </c>
-      <c r="FE3">
-        <v>52021</v>
-      </c>
-      <c r="FF3">
-        <v>52276</v>
-      </c>
-      <c r="FG3">
-        <v>52341</v>
-      </c>
-      <c r="FH3">
-        <v>52371</v>
-      </c>
-      <c r="FI3">
-        <v>52470</v>
-      </c>
-      <c r="FJ3">
-        <v>52783</v>
-      </c>
-      <c r="FK3">
-        <v>53070</v>
-      </c>
-      <c r="FL3">
-        <v>56140</v>
-      </c>
-      <c r="FM3">
-        <v>56261</v>
-      </c>
-      <c r="FN3">
-        <v>56566</v>
-      </c>
-      <c r="FO3">
-        <v>56678</v>
-      </c>
-      <c r="FP3">
-        <v>56955</v>
-      </c>
-      <c r="FQ3">
-        <v>57060</v>
-      </c>
-      <c r="FR3">
-        <v>57122</v>
-      </c>
-      <c r="FS3">
-        <v>57151</v>
-      </c>
-      <c r="FT3">
-        <v>57377</v>
-      </c>
-      <c r="FU3">
-        <v>57603</v>
-      </c>
-      <c r="FV3">
-        <v>57649</v>
-      </c>
-      <c r="FW3">
-        <v>57676</v>
-      </c>
-      <c r="FX3">
-        <v>57768</v>
-      </c>
-      <c r="FY3">
-        <v>57990</v>
-      </c>
-      <c r="FZ3">
-        <v>58248</v>
-      </c>
-      <c r="GA3">
-        <v>60989</v>
-      </c>
-      <c r="GB3">
-        <v>61094</v>
-      </c>
-      <c r="GC3">
-        <v>61366</v>
-      </c>
-      <c r="GD3">
-        <v>61455</v>
-      </c>
-      <c r="GE3">
-        <v>61722</v>
-      </c>
-      <c r="GF3">
-        <v>61815</v>
-      </c>
-      <c r="GG3">
-        <v>61868</v>
-      </c>
-      <c r="GH3">
-        <v>61905</v>
-      </c>
-      <c r="GI3">
-        <v>62191</v>
-      </c>
-      <c r="GJ3">
-        <v>62371</v>
-      </c>
-      <c r="GK3">
-        <v>62439</v>
-      </c>
-      <c r="GL3">
-        <v>62462</v>
-      </c>
-      <c r="GM3">
-        <v>62549</v>
-      </c>
-      <c r="GN3">
-        <v>62833</v>
-      </c>
-      <c r="GO3">
-        <v>63130</v>
-      </c>
-      <c r="GP3">
-        <v>66124</v>
-      </c>
-      <c r="GQ3">
-        <v>66213</v>
-      </c>
-      <c r="GR3">
-        <v>66771</v>
-      </c>
-      <c r="GS3">
-        <v>66836</v>
-      </c>
-      <c r="GT3">
-        <v>66925</v>
-      </c>
-      <c r="GU3">
-        <v>66980</v>
-      </c>
-      <c r="GV3">
-        <v>66998</v>
-      </c>
-      <c r="GW3">
-        <v>67299</v>
-      </c>
-      <c r="GX3">
-        <v>67468</v>
-      </c>
-      <c r="GY3">
-        <v>67541</v>
-      </c>
-      <c r="GZ3">
-        <v>67565</v>
-      </c>
-      <c r="HA3">
-        <v>67641</v>
-      </c>
-      <c r="HB3">
-        <v>68034</v>
-      </c>
-      <c r="HC3">
-        <v>68234</v>
-      </c>
-      <c r="HD3">
-        <v>70045</v>
-      </c>
-      <c r="HE3">
-        <v>70119</v>
-      </c>
-      <c r="HF3">
-        <v>70679</v>
-      </c>
-      <c r="HG3">
-        <v>70807</v>
-      </c>
-      <c r="HH3">
-        <v>70916</v>
-      </c>
-      <c r="HI3">
-        <v>70966</v>
-      </c>
-      <c r="HJ3">
-        <v>71029</v>
-      </c>
-      <c r="HK3">
-        <v>71365</v>
-      </c>
-      <c r="HL3">
-        <v>71517</v>
-      </c>
-      <c r="HM3">
-        <v>71568</v>
-      </c>
-      <c r="HN3">
-        <v>71602</v>
-      </c>
-      <c r="HO3">
-        <v>71735</v>
-      </c>
-      <c r="HP3">
-        <v>72177</v>
-      </c>
-      <c r="HQ3">
-        <v>72398</v>
-      </c>
-      <c r="HR3">
-        <v>73930</v>
-      </c>
-      <c r="HS3">
-        <v>74020</v>
-      </c>
-      <c r="HT3">
-        <v>74477</v>
-      </c>
-      <c r="HU3">
-        <v>74599</v>
-      </c>
-      <c r="HV3">
-        <v>74706</v>
-      </c>
-      <c r="HW3">
-        <v>74769</v>
-      </c>
-      <c r="HX3">
-        <v>74799</v>
-      </c>
-      <c r="HY3">
-        <v>75083</v>
-      </c>
-      <c r="HZ3">
-        <v>75218</v>
-      </c>
-      <c r="IA3">
-        <v>75293</v>
-      </c>
-      <c r="IB3">
-        <v>75332</v>
-      </c>
-      <c r="IC3">
-        <v>75472</v>
-      </c>
-      <c r="ID3">
-        <v>75983</v>
-      </c>
-      <c r="IE3">
-        <v>76124</v>
-      </c>
-      <c r="IF3">
-        <v>78752</v>
-      </c>
-      <c r="IG3">
-        <v>78835</v>
-      </c>
-      <c r="IH3">
-        <v>79315</v>
-      </c>
-      <c r="II3">
-        <v>79449</v>
-      </c>
-      <c r="IJ3">
-        <v>79545</v>
-      </c>
-      <c r="IK3">
-        <v>79601</v>
-      </c>
-      <c r="IL3">
-        <v>79641</v>
-      </c>
-      <c r="IM3">
-        <v>79939</v>
-      </c>
-      <c r="IN3">
-        <v>80110</v>
-      </c>
-      <c r="IO3">
-        <v>80171</v>
-      </c>
-      <c r="IP3">
-        <v>80211</v>
-      </c>
-      <c r="IQ3">
-        <v>80379</v>
-      </c>
-      <c r="IR3">
-        <v>80907</v>
-      </c>
-      <c r="IS3">
-        <v>81167</v>
-      </c>
-      <c r="IT3">
-        <v>83426</v>
-      </c>
-      <c r="IU3">
-        <v>83528</v>
-      </c>
-      <c r="IV3">
-        <v>84269</v>
-      </c>
-      <c r="IW3">
-        <v>84379</v>
-      </c>
-      <c r="IX3">
-        <v>84453</v>
-      </c>
-      <c r="IY3">
-        <v>84507</v>
-      </c>
-      <c r="IZ3">
-        <v>84548</v>
-      </c>
-      <c r="JA3">
-        <v>84789</v>
-      </c>
-      <c r="JB3">
-        <v>84989</v>
-      </c>
-      <c r="JC3">
-        <v>85041</v>
-      </c>
-      <c r="JD3">
-        <v>85074</v>
-      </c>
-      <c r="JE3">
-        <v>85214</v>
-      </c>
-      <c r="JF3">
-        <v>85645</v>
-      </c>
-      <c r="JG3">
-        <v>85889</v>
-      </c>
-      <c r="JH3">
-        <v>87820</v>
-      </c>
-      <c r="JI3">
-        <v>87879</v>
-      </c>
-      <c r="JJ3">
-        <v>88212</v>
-      </c>
-      <c r="JK3">
-        <v>88329</v>
-      </c>
-      <c r="JL3">
-        <v>88383</v>
-      </c>
-      <c r="JM3">
-        <v>88458</v>
-      </c>
-      <c r="JN3">
-        <v>88503</v>
-      </c>
-      <c r="JO3">
-        <v>88776</v>
-      </c>
-      <c r="JP3">
-        <v>88924</v>
-      </c>
-      <c r="JQ3">
-        <v>88967</v>
-      </c>
-      <c r="JR3">
-        <v>89016</v>
-      </c>
-      <c r="JS3">
-        <v>89159</v>
-      </c>
-      <c r="JT3">
-        <v>89597</v>
-      </c>
-      <c r="JU3">
-        <v>89865</v>
-      </c>
-      <c r="JV3">
-        <v>91437</v>
-      </c>
-      <c r="JW3">
-        <v>91560</v>
-      </c>
-      <c r="JX3">
-        <v>91907</v>
-      </c>
-      <c r="JY3">
-        <v>92041</v>
-      </c>
-      <c r="JZ3">
-        <v>92128</v>
-      </c>
-      <c r="KA3">
-        <v>92193</v>
-      </c>
-      <c r="KB3">
-        <v>92223</v>
-      </c>
-      <c r="KC3">
-        <v>92590</v>
-      </c>
-      <c r="KD3">
-        <v>92753</v>
-      </c>
-      <c r="KE3">
-        <v>92804</v>
-      </c>
-      <c r="KF3">
-        <v>92858</v>
-      </c>
-      <c r="KG3">
-        <v>93008</v>
-      </c>
-      <c r="KH3">
-        <v>93616</v>
-      </c>
-      <c r="KI3">
-        <v>93872</v>
-      </c>
-      <c r="KJ3">
-        <v>95521</v>
-      </c>
-      <c r="KK3">
-        <v>95614</v>
-      </c>
-      <c r="KL3">
-        <v>96538</v>
-      </c>
-      <c r="KM3">
-        <v>96621</v>
-      </c>
-      <c r="KN3">
-        <v>96690</v>
-      </c>
-      <c r="KO3">
-        <v>96741</v>
-      </c>
-      <c r="KP3">
-        <v>96773</v>
-      </c>
-      <c r="KQ3">
-        <v>97148</v>
-      </c>
-      <c r="KR3">
-        <v>97269</v>
-      </c>
-      <c r="KS3">
-        <v>97328</v>
-      </c>
-      <c r="KT3">
-        <v>97369</v>
-      </c>
-      <c r="KU3">
-        <v>97472</v>
-      </c>
-      <c r="KV3">
-        <v>98365</v>
-      </c>
-      <c r="KW3">
-        <v>98582</v>
-      </c>
-      <c r="KX3">
-        <v>99629</v>
-      </c>
-      <c r="KY3">
-        <v>99740</v>
-      </c>
-      <c r="KZ3">
-        <v>100829</v>
-      </c>
-      <c r="LA3">
-        <v>100952</v>
-      </c>
-      <c r="LB3">
-        <v>101018</v>
-      </c>
-      <c r="LC3">
-        <v>101056</v>
-      </c>
       <c r="LD3">
-        <v>101098</v>
+        <v>36329</v>
       </c>
       <c r="LE3">
-        <v>101510</v>
+        <v>36421</v>
       </c>
       <c r="LF3">
-        <v>101590</v>
+        <v>36508</v>
       </c>
       <c r="LG3">
-        <v>101634</v>
+        <v>36584</v>
       </c>
       <c r="LH3">
-        <v>101677</v>
+        <v>36717</v>
       </c>
       <c r="LI3">
-        <v>101816</v>
+        <v>36857</v>
       </c>
       <c r="LJ3">
-        <v>102847</v>
+        <v>37025</v>
       </c>
       <c r="LK3">
-        <v>103074</v>
+        <v>37165</v>
       </c>
       <c r="LL3">
-        <v>103842</v>
+        <v>37308</v>
       </c>
       <c r="LM3">
-        <v>103965</v>
+        <v>37458</v>
       </c>
       <c r="LN3">
-        <v>104944</v>
+        <v>37561</v>
       </c>
       <c r="LO3">
-        <v>105054</v>
+        <v>37700</v>
       </c>
       <c r="LP3">
-        <v>105117</v>
+        <v>37880</v>
       </c>
       <c r="LQ3">
-        <v>105161</v>
+        <v>38062</v>
       </c>
       <c r="LR3">
-        <v>105218</v>
+        <v>38267</v>
       </c>
       <c r="LS3">
-        <v>105574</v>
+        <v>38443</v>
       </c>
       <c r="LT3">
-        <v>105686</v>
+        <v>38652</v>
       </c>
       <c r="LU3">
-        <v>105731</v>
+        <v>38792</v>
       </c>
       <c r="LV3">
-        <v>105775</v>
+        <v>38939</v>
       </c>
       <c r="LW3">
-        <v>105955</v>
+        <v>39173</v>
       </c>
       <c r="LX3">
-        <v>107147</v>
+        <v>39441</v>
       </c>
       <c r="LY3">
-        <v>107347</v>
+        <v>39696</v>
       </c>
       <c r="LZ3">
-        <v>108670</v>
+        <v>39965</v>
       </c>
       <c r="MA3">
-        <v>108783</v>
+        <v>40195</v>
       </c>
       <c r="MB3">
-        <v>109756</v>
+        <v>40373</v>
       </c>
       <c r="MC3">
-        <v>109891</v>
+        <v>40580</v>
       </c>
       <c r="MD3">
-        <v>109949</v>
+        <v>40791</v>
       </c>
       <c r="ME3">
-        <v>109997</v>
+        <v>41016</v>
       </c>
       <c r="MF3">
-        <v>110040</v>
+        <v>41290</v>
       </c>
       <c r="MG3">
-        <v>110411</v>
+        <v>41653</v>
       </c>
       <c r="MH3">
-        <v>110531</v>
+        <v>41966</v>
       </c>
       <c r="MI3">
-        <v>110580</v>
+        <v>42188</v>
       </c>
       <c r="MJ3">
-        <v>110623</v>
+        <v>42472</v>
       </c>
       <c r="MK3">
-        <v>110805</v>
+        <v>42865</v>
       </c>
       <c r="ML3">
-        <v>111769</v>
+        <v>43307</v>
       </c>
       <c r="MM3">
-        <v>111925</v>
+        <v>43818</v>
       </c>
       <c r="MN3">
-        <v>113095</v>
+        <v>44346</v>
       </c>
       <c r="MO3">
-        <v>113214</v>
+        <v>44777</v>
       </c>
       <c r="MP3">
-        <v>114017</v>
+        <v>45215</v>
       </c>
       <c r="MQ3">
-        <v>114139</v>
+        <v>45823</v>
       </c>
       <c r="MR3">
-        <v>114187</v>
+        <v>46716</v>
       </c>
       <c r="MS3">
-        <v>114249</v>
+        <v>47747</v>
       </c>
       <c r="MT3">
-        <v>114296</v>
+        <v>48939</v>
       </c>
       <c r="MU3">
-        <v>114545</v>
+        <v>49903</v>
       </c>
       <c r="MV3">
-        <v>114668</v>
+        <v>50755</v>
       </c>
       <c r="MW3">
-        <v>114711</v>
+        <v>51795</v>
       </c>
       <c r="MX3">
-        <v>114760</v>
+        <v>53384</v>
       </c>
       <c r="MY3">
-        <v>114965</v>
+        <v>55446</v>
       </c>
       <c r="MZ3">
-        <v>115817</v>
+        <v>57545</v>
       </c>
       <c r="NA3">
-        <v>116072</v>
+        <v>59547</v>
       </c>
       <c r="NB3">
-        <v>117249</v>
+        <v>61140</v>
       </c>
       <c r="NC3">
-        <v>117343</v>
+        <v>62241</v>
       </c>
       <c r="ND3">
-        <v>117810</v>
+        <v>63537</v>
       </c>
       <c r="NE3">
-        <v>117904</v>
+        <v>65955</v>
       </c>
       <c r="NF3">
-        <v>117953</v>
+        <v>68543</v>
       </c>
       <c r="NG3">
-        <v>118007</v>
+        <v>71252</v>
       </c>
       <c r="NH3">
-        <v>118044</v>
+        <v>72814</v>
       </c>
       <c r="NI3">
-        <v>118323</v>
+        <v>75565</v>
       </c>
       <c r="NJ3">
-        <v>118430</v>
+        <v>77378</v>
       </c>
       <c r="NK3">
-        <v>118461</v>
+        <v>79199</v>
       </c>
       <c r="NL3">
-        <v>118522</v>
+        <v>82268</v>
       </c>
       <c r="NM3">
-        <v>118698</v>
+        <v>85309</v>
       </c>
       <c r="NN3">
-        <v>119738</v>
+        <v>88379</v>
       </c>
       <c r="NO3">
-        <v>120026</v>
+        <v>91120</v>
       </c>
       <c r="NP3">
-        <v>121069</v>
+        <v>94114</v>
       </c>
       <c r="NQ3">
-        <v>121160</v>
+        <v>95925</v>
       </c>
       <c r="NR3">
-        <v>121561</v>
+        <v>97457</v>
       </c>
       <c r="NS3">
-        <v>121665</v>
+        <v>100085</v>
       </c>
       <c r="NT3">
-        <v>121734</v>
+        <v>102344</v>
       </c>
       <c r="NU3">
-        <v>121779</v>
+        <v>104275</v>
       </c>
       <c r="NV3">
-        <v>121799</v>
+        <v>105847</v>
       </c>
       <c r="NW3">
-        <v>122237</v>
+        <v>107496</v>
       </c>
       <c r="NX3">
-        <v>122350</v>
+        <v>108543</v>
       </c>
       <c r="NY3">
-        <v>122407</v>
+        <v>109311</v>
       </c>
       <c r="NZ3">
-        <v>122455</v>
+        <v>110634</v>
       </c>
       <c r="OA3">
-        <v>122664</v>
+        <v>111804</v>
       </c>
       <c r="OB3">
-        <v>124253</v>
+        <v>112981</v>
       </c>
       <c r="OC3">
-        <v>124536</v>
+        <v>114024</v>
       </c>
       <c r="OD3">
-        <v>125383</v>
+        <v>114871</v>
       </c>
       <c r="OE3">
-        <v>125441</v>
+        <v>115386</v>
       </c>
       <c r="OF3">
-        <v>126302</v>
+        <v>115789</v>
       </c>
       <c r="OG3">
-        <v>126375</v>
+        <v>116523</v>
       </c>
       <c r="OH3">
-        <v>126446</v>
+        <v>117284</v>
       </c>
       <c r="OI3">
-        <v>126490</v>
+        <v>117895</v>
       </c>
       <c r="OJ3">
-        <v>126554</v>
+        <v>118524</v>
       </c>
       <c r="OK3">
-        <v>126997</v>
+        <v>119168</v>
       </c>
       <c r="OL3">
-        <v>127071</v>
+        <v>119535</v>
       </c>
       <c r="OM3">
-        <v>127127</v>
+        <v>119825</v>
       </c>
       <c r="ON3">
-        <v>127177</v>
+        <v>120475</v>
       </c>
       <c r="OO3">
-        <v>127317</v>
+        <v>121007</v>
       </c>
       <c r="OP3">
-        <v>129379</v>
+        <v>121553</v>
       </c>
       <c r="OQ3">
-        <v>129626</v>
+        <v>122015</v>
       </c>
       <c r="OR3">
-        <v>130141</v>
+        <v>122471</v>
       </c>
       <c r="OS3">
-        <v>130252</v>
+        <v>122776</v>
       </c>
       <c r="OT3">
-        <v>130314</v>
+        <v>123048</v>
       </c>
       <c r="OU3">
-        <v>130341</v>
+        <v>123606</v>
       </c>
       <c r="OV3">
-        <v>130430</v>
+        <v>124166</v>
       </c>
       <c r="OW3">
-        <v>130832</v>
+        <v>124623</v>
       </c>
       <c r="OX3">
-        <v>130882</v>
+        <v>125103</v>
       </c>
       <c r="OY3">
-        <v>130928</v>
+        <v>125844</v>
       </c>
       <c r="OZ3">
-        <v>130967</v>
+        <v>126177</v>
       </c>
       <c r="PA3">
-        <v>131114</v>
+        <v>126524</v>
       </c>
       <c r="PB3">
-        <v>133213</v>
+        <v>127448</v>
       </c>
       <c r="PC3">
-        <v>133432</v>
+        <v>128537</v>
       </c>
       <c r="PD3">
-        <v>133835</v>
+        <v>129516</v>
       </c>
       <c r="PE3">
-        <v>133954</v>
+        <v>130489</v>
       </c>
       <c r="PF3">
-        <v>134003</v>
+        <v>131292</v>
       </c>
       <c r="PG3">
-        <v>134034</v>
+        <v>131759</v>
       </c>
       <c r="PH3">
-        <v>134157</v>
+        <v>132160</v>
       </c>
       <c r="PI3">
-        <v>134586</v>
+        <v>133021</v>
       </c>
       <c r="PJ3">
-        <v>134662</v>
+        <v>133538</v>
       </c>
       <c r="PK3">
-        <v>134687</v>
+        <v>134475</v>
       </c>
       <c r="PL3">
-        <v>134730</v>
+        <v>135410</v>
       </c>
       <c r="PM3">
-        <v>134964</v>
+        <v>136265</v>
       </c>
       <c r="PN3">
-        <v>136966</v>
+        <v>136556</v>
       </c>
       <c r="PO3">
-        <v>137102</v>
+        <v>136801</v>
       </c>
       <c r="PP3">
-        <v>137836</v>
+        <v>137384</v>
       </c>
       <c r="PQ3">
-        <v>137971</v>
+        <v>137983</v>
       </c>
       <c r="PR3">
-        <v>138000</v>
+        <v>138483</v>
       </c>
       <c r="PS3">
-        <v>138324</v>
+        <v>139009</v>
       </c>
       <c r="PT3">
-        <v>138416</v>
+        <v>139496</v>
       </c>
       <c r="PU3">
-        <v>138447</v>
+        <v>139773</v>
       </c>
       <c r="PV3">
         <v>140040</v>
